--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.537485056852404</v>
+        <v>2.537485056852688</v>
       </c>
       <c r="C2">
-        <v>0.8671761597399268</v>
+        <v>0.8671761597398131</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1391347127421483</v>
+        <v>0.1391347127421412</v>
       </c>
       <c r="F2">
-        <v>1.549279969453735</v>
+        <v>1.549279969453764</v>
       </c>
       <c r="G2">
-        <v>0.7872199644628637</v>
+        <v>0.7872199644628566</v>
       </c>
       <c r="H2">
-        <v>0.444452565227941</v>
+        <v>0.4444525652279196</v>
       </c>
       <c r="I2">
-        <v>0.05152780242641697</v>
+        <v>0.05152780242639921</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9648188912215829</v>
+        <v>0.96481889122159</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.196525562330521</v>
+        <v>2.196525562330464</v>
       </c>
       <c r="C3">
-        <v>0.7497307791059313</v>
+        <v>0.7497307791061587</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1206881301178342</v>
+        <v>0.1206881301178413</v>
       </c>
       <c r="F3">
         <v>1.347526190860137</v>
@@ -468,10 +468,10 @@
         <v>0.7103207018131172</v>
       </c>
       <c r="H3">
-        <v>0.4195325525664799</v>
+        <v>0.4195325525664728</v>
       </c>
       <c r="I3">
-        <v>0.05529754950183552</v>
+        <v>0.05529754950185684</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.988937635404795</v>
+        <v>1.988937635404767</v>
       </c>
       <c r="C4">
         <v>0.678433274556113</v>
@@ -497,19 +497,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1095087269467356</v>
+        <v>0.1095087269467143</v>
       </c>
       <c r="F4">
-        <v>1.226596356326809</v>
+        <v>1.226596356326795</v>
       </c>
       <c r="G4">
-        <v>0.6658447146414872</v>
+        <v>0.6658447146414943</v>
       </c>
       <c r="H4">
         <v>0.4061054675903719</v>
       </c>
       <c r="I4">
-        <v>0.05783759502063379</v>
+        <v>0.05783759502063024</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7541944614825553</v>
+        <v>0.7541944614825411</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.90470385319324</v>
+        <v>1.904703853193098</v>
       </c>
       <c r="C5">
-        <v>0.6495470793980473</v>
+        <v>0.6495470793979052</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1049850280001223</v>
+        <v>0.1049850280001081</v>
       </c>
       <c r="F5">
         <v>1.177973003606112</v>
       </c>
       <c r="G5">
-        <v>0.6483435640217579</v>
+        <v>0.648343564021765</v>
       </c>
       <c r="H5">
-        <v>0.4010655502653862</v>
+        <v>0.4010655502653506</v>
       </c>
       <c r="I5">
-        <v>0.05892564912145115</v>
+        <v>0.05892564912147158</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7219166776235753</v>
+        <v>0.7219166776235966</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.890736339189431</v>
+        <v>1.890736339189374</v>
       </c>
       <c r="C6">
-        <v>0.644759689172929</v>
+        <v>0.6447596891725595</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.104235666458905</v>
+        <v>0.1042356664589228</v>
       </c>
       <c r="F6">
         <v>1.169936428973358</v>
@@ -582,10 +582,10 @@
         <v>0.6454733206346859</v>
       </c>
       <c r="H6">
-        <v>0.4002536553639473</v>
+        <v>0.4002536553639544</v>
       </c>
       <c r="I6">
-        <v>0.05910941675831083</v>
+        <v>0.05910941675829751</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.98780027653379</v>
+        <v>1.987800276533733</v>
       </c>
       <c r="C7">
-        <v>0.6780430707455309</v>
+        <v>0.6780430707457583</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1094475954589456</v>
+        <v>0.109447595458942</v>
       </c>
       <c r="F7">
-        <v>1.225938053867608</v>
+        <v>1.225938053867623</v>
       </c>
       <c r="G7">
-        <v>0.6656062481316027</v>
+        <v>0.665606248131617</v>
       </c>
       <c r="H7">
-        <v>0.4060357993753385</v>
+        <v>0.4060357993753598</v>
       </c>
       <c r="I7">
-        <v>0.05785205909487257</v>
+        <v>0.05785205909488056</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7537585088738936</v>
+        <v>0.7537585088738865</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.419503960747591</v>
+        <v>2.419503960747534</v>
       </c>
       <c r="C8">
-        <v>0.8264888438621085</v>
+        <v>0.8264888438621369</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1327407575351494</v>
+        <v>0.1327407575351636</v>
       </c>
       <c r="F8">
         <v>1.479050378902755</v>
       </c>
       <c r="G8">
-        <v>0.7600949155541699</v>
+        <v>0.760094915554177</v>
       </c>
       <c r="H8">
-        <v>0.4354464480446154</v>
+        <v>0.4354464480446296</v>
       </c>
       <c r="I8">
-        <v>0.05277847642634814</v>
+        <v>0.05277847642636235</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9194598982859077</v>
+        <v>0.9194598982859148</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.284247976291795</v>
+        <v>3.284247976291681</v>
       </c>
       <c r="C9">
-        <v>1.12589826158694</v>
+        <v>1.125898261586826</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1798285898559229</v>
+        <v>0.1798285898559442</v>
       </c>
       <c r="F9">
-        <v>2.002991500357368</v>
+        <v>2.002991500357396</v>
       </c>
       <c r="G9">
-        <v>0.9704138524582504</v>
+        <v>0.9704138524582362</v>
       </c>
       <c r="H9">
-        <v>0.5099500361887266</v>
+        <v>0.5099500361887479</v>
       </c>
       <c r="I9">
-        <v>0.04480614884547673</v>
+        <v>0.04480614884546075</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.252559380079063</v>
+        <v>1.252559380079092</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.937231081420975</v>
+        <v>3.937231081420862</v>
       </c>
       <c r="C10">
-        <v>1.353840138762564</v>
+        <v>1.353840138762394</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0.2156612857181273</v>
       </c>
       <c r="F10">
-        <v>2.411245768736023</v>
+        <v>2.411245768736009</v>
       </c>
       <c r="G10">
-        <v>1.14530404038166</v>
+        <v>1.145304040381646</v>
       </c>
       <c r="H10">
-        <v>0.5779944574662181</v>
+        <v>0.5779944574662323</v>
       </c>
       <c r="I10">
-        <v>0.04045462969355818</v>
+        <v>0.04045462969357771</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.504956446475802</v>
+        <v>1.504956446475816</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.239817007637555</v>
+        <v>4.239817007637612</v>
       </c>
       <c r="C11">
         <v>1.460017532182576</v>
@@ -763,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2323263243514475</v>
+        <v>0.2323263243514901</v>
       </c>
       <c r="F11">
-        <v>2.603683588536057</v>
+        <v>2.603683588536114</v>
       </c>
       <c r="G11">
-        <v>1.230604142298361</v>
+        <v>1.23060414229839</v>
       </c>
       <c r="H11">
-        <v>0.6126218504655796</v>
+        <v>0.6126218504655867</v>
       </c>
       <c r="I11">
-        <v>0.03888217720731113</v>
+        <v>0.03888217720732712</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>2.677677919669009</v>
       </c>
       <c r="G12">
-        <v>1.263857460584305</v>
+        <v>1.26385746058429</v>
       </c>
       <c r="H12">
         <v>0.6263380626040131</v>
       </c>
       <c r="I12">
-        <v>0.03835327244329534</v>
+        <v>0.0383532724432829</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.666911718916637</v>
+        <v>1.666911718916609</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.330428058201221</v>
+        <v>4.330428058201107</v>
       </c>
       <c r="C13">
-        <v>1.491881796301016</v>
+        <v>1.491881796301129</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2373230994972886</v>
+        <v>0.2373230994972957</v>
       </c>
       <c r="F13">
-        <v>2.661689313699895</v>
+        <v>2.661689313699867</v>
       </c>
       <c r="G13">
-        <v>1.25665122895623</v>
+        <v>1.256651228956216</v>
       </c>
       <c r="H13">
         <v>0.6233558808227428</v>
       </c>
       <c r="I13">
-        <v>0.03846408058238282</v>
+        <v>0.0384640805823846</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.657248948417546</v>
+        <v>1.657248948417561</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249302374124909</v>
+        <v>4.249302374125023</v>
       </c>
       <c r="C14">
-        <v>1.463351660930471</v>
+        <v>1.463351660930357</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2328492676356078</v>
+        <v>0.2328492676355509</v>
       </c>
       <c r="F14">
         <v>2.609747692945348</v>
       </c>
       <c r="G14">
-        <v>1.233320049114113</v>
+        <v>1.233320049114127</v>
       </c>
       <c r="H14">
         <v>0.6137377282533478</v>
       </c>
       <c r="I14">
-        <v>0.03883727975879836</v>
+        <v>0.03883727975882323</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.625809572920787</v>
+        <v>1.625809572920772</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.199740342067741</v>
+        <v>4.199740342067798</v>
       </c>
       <c r="C15">
-        <v>1.445934337197571</v>
+        <v>1.44593433719723</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2301171774751651</v>
+        <v>0.2301171774751722</v>
       </c>
       <c r="F15">
         <v>2.578083058720466</v>
       </c>
       <c r="G15">
-        <v>1.219157044775315</v>
+        <v>1.219157044775301</v>
       </c>
       <c r="H15">
         <v>0.6079273384122885</v>
       </c>
       <c r="I15">
-        <v>0.03907480086477122</v>
+        <v>0.03907480086474457</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.606606847676574</v>
+        <v>1.606606847676559</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.91758112950356</v>
+        <v>3.917581129503731</v>
       </c>
       <c r="C16">
-        <v>1.346957140096606</v>
+        <v>1.34695714009672</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>0.2145802567400423</v>
       </c>
       <c r="F16">
-        <v>2.398817643963426</v>
+        <v>2.398817643963412</v>
       </c>
       <c r="G16">
-        <v>1.139855446862569</v>
+        <v>1.139855446862583</v>
       </c>
       <c r="H16">
         <v>0.5758116164273517</v>
       </c>
       <c r="I16">
-        <v>0.04056624160211797</v>
+        <v>0.04056624160210909</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.497351511121323</v>
+        <v>1.497351511121295</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.74601256999847</v>
+        <v>3.746012569998584</v>
       </c>
       <c r="C17">
-        <v>1.286922640797684</v>
+        <v>1.28692264079757</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2051482261996895</v>
+        <v>0.2051482261996824</v>
       </c>
       <c r="F17">
-        <v>2.290670611456491</v>
+        <v>2.290670611456463</v>
       </c>
       <c r="G17">
         <v>1.092761936633295</v>
       </c>
       <c r="H17">
-        <v>0.5571011620880384</v>
+        <v>0.5571011620880242</v>
       </c>
       <c r="I17">
-        <v>0.04159077692135504</v>
+        <v>0.04159077692138879</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.430975568774315</v>
+        <v>1.430975568774301</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.647841631385916</v>
+        <v>3.647841631385859</v>
       </c>
       <c r="C18">
-        <v>1.252621500586542</v>
+        <v>1.252621500586713</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0.1997569001491328</v>
       </c>
       <c r="F18">
-        <v>2.229089534942588</v>
+        <v>2.229089534942545</v>
       </c>
       <c r="G18">
-        <v>1.066206961885612</v>
+        <v>1.066206961885598</v>
       </c>
       <c r="H18">
-        <v>0.546680142575859</v>
+        <v>0.5466801425758661</v>
       </c>
       <c r="I18">
-        <v>0.04221783182072691</v>
+        <v>0.0422178318207127</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.393015755810112</v>
+        <v>1.393015755810126</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1073,13 +1073,13 @@
         <v>2.208341661910012</v>
       </c>
       <c r="G19">
-        <v>1.057303681282022</v>
+        <v>1.057303681282036</v>
       </c>
       <c r="H19">
-        <v>0.5432081474741253</v>
+        <v>0.5432081474741111</v>
       </c>
       <c r="I19">
-        <v>0.04243640426680884</v>
+        <v>0.04243640426681239</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.380198776806736</v>
+        <v>1.380198776806751</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.764222376725115</v>
+        <v>3.764222376725058</v>
       </c>
       <c r="C20">
-        <v>1.293289212615548</v>
+        <v>1.293289212615605</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2061487301991676</v>
+        <v>0.2061487301991605</v>
       </c>
       <c r="F20">
-        <v>2.302117579133849</v>
+        <v>2.302117579133835</v>
       </c>
       <c r="G20">
-        <v>1.097719201211831</v>
+        <v>1.097719201211817</v>
       </c>
       <c r="H20">
-        <v>0.5590571419930228</v>
+        <v>0.5590571419930299</v>
       </c>
       <c r="I20">
-        <v>0.04147775027211864</v>
+        <v>0.04147775027214351</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.438018405005906</v>
+        <v>1.438018405005892</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.273103588736546</v>
+        <v>4.27310358873649</v>
       </c>
       <c r="C21">
-        <v>1.471719380427317</v>
+        <v>1.471719380427373</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2341616016347672</v>
+        <v>0.2341616016348027</v>
       </c>
       <c r="F21">
         <v>2.624972409588793</v>
       </c>
       <c r="G21">
-        <v>1.240146053918224</v>
+        <v>1.240146053918195</v>
       </c>
       <c r="H21">
-        <v>0.6165457825013405</v>
+        <v>0.6165457825013334</v>
       </c>
       <c r="I21">
-        <v>0.03872578586308606</v>
+        <v>0.03872578586310027</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.635032530775661</v>
+        <v>1.635032530775689</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.611357117230341</v>
+        <v>4.611357117230398</v>
       </c>
       <c r="C22">
-        <v>1.590876862664174</v>
+        <v>1.590876862664231</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2528317084844076</v>
+        <v>0.2528317084844147</v>
       </c>
       <c r="F22">
         <v>2.84260508925729</v>
       </c>
       <c r="G22">
-        <v>1.338850649389215</v>
+        <v>1.338850649389201</v>
       </c>
       <c r="H22">
         <v>0.6576784397834885</v>
       </c>
       <c r="I22">
-        <v>0.03731979113120154</v>
+        <v>0.03731979113121042</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.766188860273687</v>
+        <v>1.766188860273672</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.430247286048598</v>
+        <v>4.430247286048427</v>
       </c>
       <c r="C23">
-        <v>1.527021189769698</v>
+        <v>1.527021189769584</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2428307896894779</v>
+        <v>0.2428307896895348</v>
       </c>
       <c r="F23">
-        <v>2.725787281954126</v>
+        <v>2.725787281954155</v>
       </c>
       <c r="G23">
-        <v>1.285609596725195</v>
+        <v>1.285609596725209</v>
       </c>
       <c r="H23">
-        <v>0.6353718179716026</v>
+        <v>0.6353718179715955</v>
       </c>
       <c r="I23">
-        <v>0.03803128751979479</v>
+        <v>0.03803128751978058</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.695945175509451</v>
+        <v>1.695945175509436</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.755988283130989</v>
+        <v>3.755988283130932</v>
       </c>
       <c r="C24">
         <v>1.290410225818107</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.20569630558591</v>
+        <v>0.2056963055858745</v>
       </c>
       <c r="F24">
-        <v>2.296940566113719</v>
+        <v>2.29694056611369</v>
       </c>
       <c r="G24">
         <v>1.095476412445976</v>
@@ -1269,7 +1269,7 @@
         <v>0.5581718028828675</v>
       </c>
       <c r="I24">
-        <v>0.04152873173621607</v>
+        <v>0.04152873173621963</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>3.04773190081238</v>
       </c>
       <c r="C25">
-        <v>1.043731483654227</v>
+        <v>1.043731483654284</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1669023933781091</v>
+        <v>0.1669023933781162</v>
       </c>
       <c r="F25">
-        <v>1.85766806722043</v>
+        <v>1.857668067220416</v>
       </c>
       <c r="G25">
-        <v>0.9103445671266996</v>
+        <v>0.9103445671266854</v>
       </c>
       <c r="H25">
-        <v>0.4876990479014225</v>
+        <v>0.4876990479014367</v>
       </c>
       <c r="I25">
-        <v>0.04672267117552131</v>
+        <v>0.04672267117552398</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.16131324808255</v>
+        <v>1.161313248082543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.537485056852688</v>
+        <v>2.537485056852404</v>
       </c>
       <c r="C2">
-        <v>0.8671761597398131</v>
+        <v>0.8671761597399268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1391347127421412</v>
+        <v>0.1391347127421483</v>
       </c>
       <c r="F2">
-        <v>1.549279969453764</v>
+        <v>1.549279969453735</v>
       </c>
       <c r="G2">
-        <v>0.7872199644628566</v>
+        <v>0.7872199644628637</v>
       </c>
       <c r="H2">
-        <v>0.4444525652279196</v>
+        <v>0.444452565227941</v>
       </c>
       <c r="I2">
-        <v>0.05152780242639921</v>
+        <v>0.05152780242641697</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.96481889122159</v>
+        <v>0.9648188912215829</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.196525562330464</v>
+        <v>2.196525562330521</v>
       </c>
       <c r="C3">
-        <v>0.7497307791061587</v>
+        <v>0.7497307791059313</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1206881301178413</v>
+        <v>0.1206881301178342</v>
       </c>
       <c r="F3">
         <v>1.347526190860137</v>
@@ -468,10 +468,10 @@
         <v>0.7103207018131172</v>
       </c>
       <c r="H3">
-        <v>0.4195325525664728</v>
+        <v>0.4195325525664799</v>
       </c>
       <c r="I3">
-        <v>0.05529754950185684</v>
+        <v>0.05529754950183552</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.988937635404767</v>
+        <v>1.988937635404795</v>
       </c>
       <c r="C4">
         <v>0.678433274556113</v>
@@ -497,19 +497,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1095087269467143</v>
+        <v>0.1095087269467356</v>
       </c>
       <c r="F4">
-        <v>1.226596356326795</v>
+        <v>1.226596356326809</v>
       </c>
       <c r="G4">
-        <v>0.6658447146414943</v>
+        <v>0.6658447146414872</v>
       </c>
       <c r="H4">
         <v>0.4061054675903719</v>
       </c>
       <c r="I4">
-        <v>0.05783759502063024</v>
+        <v>0.05783759502063379</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7541944614825411</v>
+        <v>0.7541944614825553</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.904703853193098</v>
+        <v>1.90470385319324</v>
       </c>
       <c r="C5">
-        <v>0.6495470793979052</v>
+        <v>0.6495470793980473</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1049850280001081</v>
+        <v>0.1049850280001223</v>
       </c>
       <c r="F5">
         <v>1.177973003606112</v>
       </c>
       <c r="G5">
-        <v>0.648343564021765</v>
+        <v>0.6483435640217579</v>
       </c>
       <c r="H5">
-        <v>0.4010655502653506</v>
+        <v>0.4010655502653862</v>
       </c>
       <c r="I5">
-        <v>0.05892564912147158</v>
+        <v>0.05892564912145115</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7219166776235966</v>
+        <v>0.7219166776235753</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.890736339189374</v>
+        <v>1.890736339189431</v>
       </c>
       <c r="C6">
-        <v>0.6447596891725595</v>
+        <v>0.644759689172929</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1042356664589228</v>
+        <v>0.104235666458905</v>
       </c>
       <c r="F6">
         <v>1.169936428973358</v>
@@ -582,10 +582,10 @@
         <v>0.6454733206346859</v>
       </c>
       <c r="H6">
-        <v>0.4002536553639544</v>
+        <v>0.4002536553639473</v>
       </c>
       <c r="I6">
-        <v>0.05910941675829751</v>
+        <v>0.05910941675831083</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.987800276533733</v>
+        <v>1.98780027653379</v>
       </c>
       <c r="C7">
-        <v>0.6780430707457583</v>
+        <v>0.6780430707455309</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.109447595458942</v>
+        <v>0.1094475954589456</v>
       </c>
       <c r="F7">
-        <v>1.225938053867623</v>
+        <v>1.225938053867608</v>
       </c>
       <c r="G7">
-        <v>0.665606248131617</v>
+        <v>0.6656062481316027</v>
       </c>
       <c r="H7">
-        <v>0.4060357993753598</v>
+        <v>0.4060357993753385</v>
       </c>
       <c r="I7">
-        <v>0.05785205909488056</v>
+        <v>0.05785205909487257</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7537585088738865</v>
+        <v>0.7537585088738936</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.419503960747534</v>
+        <v>2.419503960747591</v>
       </c>
       <c r="C8">
-        <v>0.8264888438621369</v>
+        <v>0.8264888438621085</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1327407575351636</v>
+        <v>0.1327407575351494</v>
       </c>
       <c r="F8">
         <v>1.479050378902755</v>
       </c>
       <c r="G8">
-        <v>0.760094915554177</v>
+        <v>0.7600949155541699</v>
       </c>
       <c r="H8">
-        <v>0.4354464480446296</v>
+        <v>0.4354464480446154</v>
       </c>
       <c r="I8">
-        <v>0.05277847642636235</v>
+        <v>0.05277847642634814</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9194598982859148</v>
+        <v>0.9194598982859077</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.284247976291681</v>
+        <v>3.284247976291795</v>
       </c>
       <c r="C9">
-        <v>1.125898261586826</v>
+        <v>1.12589826158694</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1798285898559442</v>
+        <v>0.1798285898559229</v>
       </c>
       <c r="F9">
-        <v>2.002991500357396</v>
+        <v>2.002991500357368</v>
       </c>
       <c r="G9">
-        <v>0.9704138524582362</v>
+        <v>0.9704138524582504</v>
       </c>
       <c r="H9">
-        <v>0.5099500361887479</v>
+        <v>0.5099500361887266</v>
       </c>
       <c r="I9">
-        <v>0.04480614884546075</v>
+        <v>0.04480614884547673</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.252559380079092</v>
+        <v>1.252559380079063</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.937231081420862</v>
+        <v>3.937231081420975</v>
       </c>
       <c r="C10">
-        <v>1.353840138762394</v>
+        <v>1.353840138762564</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0.2156612857181273</v>
       </c>
       <c r="F10">
-        <v>2.411245768736009</v>
+        <v>2.411245768736023</v>
       </c>
       <c r="G10">
-        <v>1.145304040381646</v>
+        <v>1.14530404038166</v>
       </c>
       <c r="H10">
-        <v>0.5779944574662323</v>
+        <v>0.5779944574662181</v>
       </c>
       <c r="I10">
-        <v>0.04045462969357771</v>
+        <v>0.04045462969355818</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.504956446475816</v>
+        <v>1.504956446475802</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.239817007637612</v>
+        <v>4.239817007637555</v>
       </c>
       <c r="C11">
         <v>1.460017532182576</v>
@@ -763,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2323263243514901</v>
+        <v>0.2323263243514475</v>
       </c>
       <c r="F11">
-        <v>2.603683588536114</v>
+        <v>2.603683588536057</v>
       </c>
       <c r="G11">
-        <v>1.23060414229839</v>
+        <v>1.230604142298361</v>
       </c>
       <c r="H11">
-        <v>0.6126218504655867</v>
+        <v>0.6126218504655796</v>
       </c>
       <c r="I11">
-        <v>0.03888217720732712</v>
+        <v>0.03888217720731113</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>2.677677919669009</v>
       </c>
       <c r="G12">
-        <v>1.26385746058429</v>
+        <v>1.263857460584305</v>
       </c>
       <c r="H12">
         <v>0.6263380626040131</v>
       </c>
       <c r="I12">
-        <v>0.0383532724432829</v>
+        <v>0.03835327244329534</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.666911718916609</v>
+        <v>1.666911718916637</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.330428058201107</v>
+        <v>4.330428058201221</v>
       </c>
       <c r="C13">
-        <v>1.491881796301129</v>
+        <v>1.491881796301016</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2373230994972957</v>
+        <v>0.2373230994972886</v>
       </c>
       <c r="F13">
-        <v>2.661689313699867</v>
+        <v>2.661689313699895</v>
       </c>
       <c r="G13">
-        <v>1.256651228956216</v>
+        <v>1.25665122895623</v>
       </c>
       <c r="H13">
         <v>0.6233558808227428</v>
       </c>
       <c r="I13">
-        <v>0.0384640805823846</v>
+        <v>0.03846408058238282</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.657248948417561</v>
+        <v>1.657248948417546</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249302374125023</v>
+        <v>4.249302374124909</v>
       </c>
       <c r="C14">
-        <v>1.463351660930357</v>
+        <v>1.463351660930471</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2328492676355509</v>
+        <v>0.2328492676356078</v>
       </c>
       <c r="F14">
         <v>2.609747692945348</v>
       </c>
       <c r="G14">
-        <v>1.233320049114127</v>
+        <v>1.233320049114113</v>
       </c>
       <c r="H14">
         <v>0.6137377282533478</v>
       </c>
       <c r="I14">
-        <v>0.03883727975882323</v>
+        <v>0.03883727975879836</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.625809572920772</v>
+        <v>1.625809572920787</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.199740342067798</v>
+        <v>4.199740342067741</v>
       </c>
       <c r="C15">
-        <v>1.44593433719723</v>
+        <v>1.445934337197571</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2301171774751722</v>
+        <v>0.2301171774751651</v>
       </c>
       <c r="F15">
         <v>2.578083058720466</v>
       </c>
       <c r="G15">
-        <v>1.219157044775301</v>
+        <v>1.219157044775315</v>
       </c>
       <c r="H15">
         <v>0.6079273384122885</v>
       </c>
       <c r="I15">
-        <v>0.03907480086474457</v>
+        <v>0.03907480086477122</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.606606847676559</v>
+        <v>1.606606847676574</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.917581129503731</v>
+        <v>3.91758112950356</v>
       </c>
       <c r="C16">
-        <v>1.34695714009672</v>
+        <v>1.346957140096606</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>0.2145802567400423</v>
       </c>
       <c r="F16">
-        <v>2.398817643963412</v>
+        <v>2.398817643963426</v>
       </c>
       <c r="G16">
-        <v>1.139855446862583</v>
+        <v>1.139855446862569</v>
       </c>
       <c r="H16">
         <v>0.5758116164273517</v>
       </c>
       <c r="I16">
-        <v>0.04056624160210909</v>
+        <v>0.04056624160211797</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.497351511121295</v>
+        <v>1.497351511121323</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.746012569998584</v>
+        <v>3.74601256999847</v>
       </c>
       <c r="C17">
-        <v>1.28692264079757</v>
+        <v>1.286922640797684</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2051482261996824</v>
+        <v>0.2051482261996895</v>
       </c>
       <c r="F17">
-        <v>2.290670611456463</v>
+        <v>2.290670611456491</v>
       </c>
       <c r="G17">
         <v>1.092761936633295</v>
       </c>
       <c r="H17">
-        <v>0.5571011620880242</v>
+        <v>0.5571011620880384</v>
       </c>
       <c r="I17">
-        <v>0.04159077692138879</v>
+        <v>0.04159077692135504</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.430975568774301</v>
+        <v>1.430975568774315</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.647841631385859</v>
+        <v>3.647841631385916</v>
       </c>
       <c r="C18">
-        <v>1.252621500586713</v>
+        <v>1.252621500586542</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0.1997569001491328</v>
       </c>
       <c r="F18">
-        <v>2.229089534942545</v>
+        <v>2.229089534942588</v>
       </c>
       <c r="G18">
-        <v>1.066206961885598</v>
+        <v>1.066206961885612</v>
       </c>
       <c r="H18">
-        <v>0.5466801425758661</v>
+        <v>0.546680142575859</v>
       </c>
       <c r="I18">
-        <v>0.0422178318207127</v>
+        <v>0.04221783182072691</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.393015755810126</v>
+        <v>1.393015755810112</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1073,13 +1073,13 @@
         <v>2.208341661910012</v>
       </c>
       <c r="G19">
-        <v>1.057303681282036</v>
+        <v>1.057303681282022</v>
       </c>
       <c r="H19">
-        <v>0.5432081474741111</v>
+        <v>0.5432081474741253</v>
       </c>
       <c r="I19">
-        <v>0.04243640426681239</v>
+        <v>0.04243640426680884</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.380198776806751</v>
+        <v>1.380198776806736</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.764222376725058</v>
+        <v>3.764222376725115</v>
       </c>
       <c r="C20">
-        <v>1.293289212615605</v>
+        <v>1.293289212615548</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2061487301991605</v>
+        <v>0.2061487301991676</v>
       </c>
       <c r="F20">
-        <v>2.302117579133835</v>
+        <v>2.302117579133849</v>
       </c>
       <c r="G20">
-        <v>1.097719201211817</v>
+        <v>1.097719201211831</v>
       </c>
       <c r="H20">
-        <v>0.5590571419930299</v>
+        <v>0.5590571419930228</v>
       </c>
       <c r="I20">
-        <v>0.04147775027214351</v>
+        <v>0.04147775027211864</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.438018405005892</v>
+        <v>1.438018405005906</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.27310358873649</v>
+        <v>4.273103588736546</v>
       </c>
       <c r="C21">
-        <v>1.471719380427373</v>
+        <v>1.471719380427317</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2341616016348027</v>
+        <v>0.2341616016347672</v>
       </c>
       <c r="F21">
         <v>2.624972409588793</v>
       </c>
       <c r="G21">
-        <v>1.240146053918195</v>
+        <v>1.240146053918224</v>
       </c>
       <c r="H21">
-        <v>0.6165457825013334</v>
+        <v>0.6165457825013405</v>
       </c>
       <c r="I21">
-        <v>0.03872578586310027</v>
+        <v>0.03872578586308606</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.635032530775689</v>
+        <v>1.635032530775661</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.611357117230398</v>
+        <v>4.611357117230341</v>
       </c>
       <c r="C22">
-        <v>1.590876862664231</v>
+        <v>1.590876862664174</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2528317084844147</v>
+        <v>0.2528317084844076</v>
       </c>
       <c r="F22">
         <v>2.84260508925729</v>
       </c>
       <c r="G22">
-        <v>1.338850649389201</v>
+        <v>1.338850649389215</v>
       </c>
       <c r="H22">
         <v>0.6576784397834885</v>
       </c>
       <c r="I22">
-        <v>0.03731979113121042</v>
+        <v>0.03731979113120154</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.766188860273672</v>
+        <v>1.766188860273687</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.430247286048427</v>
+        <v>4.430247286048598</v>
       </c>
       <c r="C23">
-        <v>1.527021189769584</v>
+        <v>1.527021189769698</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2428307896895348</v>
+        <v>0.2428307896894779</v>
       </c>
       <c r="F23">
-        <v>2.725787281954155</v>
+        <v>2.725787281954126</v>
       </c>
       <c r="G23">
-        <v>1.285609596725209</v>
+        <v>1.285609596725195</v>
       </c>
       <c r="H23">
-        <v>0.6353718179715955</v>
+        <v>0.6353718179716026</v>
       </c>
       <c r="I23">
-        <v>0.03803128751978058</v>
+        <v>0.03803128751979479</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.695945175509436</v>
+        <v>1.695945175509451</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.755988283130932</v>
+        <v>3.755988283130989</v>
       </c>
       <c r="C24">
         <v>1.290410225818107</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2056963055858745</v>
+        <v>0.20569630558591</v>
       </c>
       <c r="F24">
-        <v>2.29694056611369</v>
+        <v>2.296940566113719</v>
       </c>
       <c r="G24">
         <v>1.095476412445976</v>
@@ -1269,7 +1269,7 @@
         <v>0.5581718028828675</v>
       </c>
       <c r="I24">
-        <v>0.04152873173621963</v>
+        <v>0.04152873173621607</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>3.04773190081238</v>
       </c>
       <c r="C25">
-        <v>1.043731483654284</v>
+        <v>1.043731483654227</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1669023933781162</v>
+        <v>0.1669023933781091</v>
       </c>
       <c r="F25">
-        <v>1.857668067220416</v>
+        <v>1.85766806722043</v>
       </c>
       <c r="G25">
-        <v>0.9103445671266854</v>
+        <v>0.9103445671266996</v>
       </c>
       <c r="H25">
-        <v>0.4876990479014367</v>
+        <v>0.4876990479014225</v>
       </c>
       <c r="I25">
-        <v>0.04672267117552398</v>
+        <v>0.04672267117552131</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.161313248082543</v>
+        <v>1.16131324808255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.537485056852404</v>
+        <v>2.537275214097633</v>
       </c>
       <c r="C2">
-        <v>0.8671761597399268</v>
+        <v>0.8666788510947185</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1391347127421483</v>
+        <v>0.1393320507501592</v>
       </c>
       <c r="F2">
-        <v>1.549279969453735</v>
+        <v>1.548377313086064</v>
       </c>
       <c r="G2">
-        <v>0.7872199644628637</v>
+        <v>0.2494318053954316</v>
       </c>
       <c r="H2">
-        <v>0.444452565227941</v>
+        <v>0.5401467176211909</v>
       </c>
       <c r="I2">
-        <v>0.05152780242641697</v>
+        <v>0.4433919859199662</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05143354527678667</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9648188912215829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.9650210770586725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.196525562330521</v>
+        <v>2.196372748320357</v>
       </c>
       <c r="C3">
-        <v>0.7497307791059313</v>
+        <v>0.7493129005208914</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1206881301178342</v>
+        <v>0.1208617458552581</v>
       </c>
       <c r="F3">
-        <v>1.347526190860137</v>
+        <v>1.346735452264994</v>
       </c>
       <c r="G3">
-        <v>0.7103207018131172</v>
+        <v>0.2210788606986753</v>
       </c>
       <c r="H3">
-        <v>0.4195325525664799</v>
+        <v>0.4918792058415633</v>
       </c>
       <c r="I3">
-        <v>0.05529754950183552</v>
+        <v>0.4185811921502633</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0552088367931356</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8338182697078906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8340020662138059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.988937635404795</v>
+        <v>1.988816219517275</v>
       </c>
       <c r="C4">
-        <v>0.678433274556113</v>
+        <v>0.6780623495473321</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1095087269467356</v>
+        <v>0.1096679715333266</v>
       </c>
       <c r="F4">
-        <v>1.226596356326809</v>
+        <v>1.225872713966993</v>
       </c>
       <c r="G4">
-        <v>0.6658447146414872</v>
+        <v>0.2045465844058043</v>
       </c>
       <c r="H4">
-        <v>0.4061054675903719</v>
+        <v>0.4641015258196859</v>
       </c>
       <c r="I4">
-        <v>0.05783759502063379</v>
+        <v>0.4052191560731586</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05775190038731015</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7541944614825553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7543660502770919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.90470385319324</v>
+        <v>1.904594445787723</v>
       </c>
       <c r="C5">
-        <v>0.6495470793980473</v>
+        <v>0.6491949021742016</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1049850280001223</v>
+        <v>0.1051384582843475</v>
       </c>
       <c r="F5">
-        <v>1.177973003606112</v>
+        <v>1.177276366238175</v>
       </c>
       <c r="G5">
-        <v>0.6483435640217579</v>
+        <v>0.1980074791289113</v>
       </c>
       <c r="H5">
-        <v>0.4010655502653862</v>
+        <v>0.453206021322444</v>
       </c>
       <c r="I5">
-        <v>0.05892564912145115</v>
+        <v>0.4002053091539892</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05884109770447754</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7219166776235753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7220830891266701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.890736339189431</v>
+        <v>1.890628881641931</v>
       </c>
       <c r="C6">
-        <v>0.644759689172929</v>
+        <v>0.6444106036107371</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.104235666458905</v>
+        <v>0.1043881336318613</v>
       </c>
       <c r="F6">
-        <v>1.169936428973358</v>
+        <v>1.169244257306161</v>
       </c>
       <c r="G6">
-        <v>0.6454733206346859</v>
+        <v>0.1969329966047155</v>
       </c>
       <c r="H6">
-        <v>0.4002536553639473</v>
+        <v>0.4514212468959116</v>
       </c>
       <c r="I6">
-        <v>0.05910941675831083</v>
+        <v>0.399397718663856</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05902505022121129</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7165662648470246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.71673180518777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.98780027653379</v>
+        <v>1.987679025627756</v>
       </c>
       <c r="C7">
-        <v>0.6780430707455309</v>
+        <v>0.6776724000515344</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1094475954589456</v>
+        <v>0.1096067614702392</v>
       </c>
       <c r="F7">
-        <v>1.225938053867608</v>
+        <v>1.225214776984672</v>
       </c>
       <c r="G7">
-        <v>0.6656062481316027</v>
+        <v>0.2044576227471353</v>
       </c>
       <c r="H7">
-        <v>0.4060357993753385</v>
+        <v>0.4639529226646246</v>
       </c>
       <c r="I7">
-        <v>0.05785205909487257</v>
+        <v>0.405149841139071</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05776638021732161</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7537585088738936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.7539300286311885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.419503960747591</v>
+        <v>2.419314610712888</v>
       </c>
       <c r="C8">
-        <v>0.8264888438621085</v>
+        <v>0.8260193446864434</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1327407575351494</v>
+        <v>0.1329298714908234</v>
       </c>
       <c r="F8">
-        <v>1.479050378902755</v>
+        <v>1.478186693449302</v>
       </c>
       <c r="G8">
-        <v>0.7600949155541699</v>
+        <v>0.2394596676595313</v>
       </c>
       <c r="H8">
-        <v>0.4354464480446154</v>
+        <v>0.5230911223496193</v>
       </c>
       <c r="I8">
-        <v>0.05277847642634814</v>
+        <v>0.434423988452771</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0526862178155989</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9194598982859077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9196559515797702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.284247976291795</v>
+        <v>3.28389004694526</v>
       </c>
       <c r="C9">
-        <v>1.12589826158694</v>
+        <v>1.125216917036056</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1798285898559229</v>
+        <v>0.1800783094865608</v>
       </c>
       <c r="F9">
-        <v>2.002991500357368</v>
+        <v>2.001835931638709</v>
       </c>
       <c r="G9">
-        <v>0.9704138524582504</v>
+        <v>0.3161727787378652</v>
       </c>
       <c r="H9">
-        <v>0.5099500361887266</v>
+        <v>0.6559636831834155</v>
       </c>
       <c r="I9">
-        <v>0.04480614884547673</v>
+        <v>0.5086404185340143</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04469738374143972</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.252559380079063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.252794816359625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.937231081420975</v>
+        <v>3.936717673903615</v>
       </c>
       <c r="C10">
-        <v>1.353840138762564</v>
+        <v>1.352986286658108</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2156612857181273</v>
+        <v>0.2159571878211892</v>
       </c>
       <c r="F10">
-        <v>2.411245768736023</v>
+        <v>2.409859629217365</v>
       </c>
       <c r="G10">
-        <v>1.14530404038166</v>
+        <v>0.3791988712187049</v>
       </c>
       <c r="H10">
-        <v>0.5779944574662181</v>
+        <v>0.7672440422005593</v>
       </c>
       <c r="I10">
-        <v>0.04045462969355818</v>
+        <v>0.576456297835179</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0403306626081914</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.504956446475802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.50521309946275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.239817007637555</v>
+        <v>4.239223204907375</v>
       </c>
       <c r="C11">
-        <v>1.460017532182576</v>
+        <v>1.459079949596514</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2323263243514475</v>
+        <v>0.2326437216908914</v>
       </c>
       <c r="F11">
-        <v>2.603683588536057</v>
+        <v>2.602187385803944</v>
       </c>
       <c r="G11">
-        <v>1.230604142298361</v>
+        <v>0.4097665368920218</v>
       </c>
       <c r="H11">
-        <v>0.6126218504655796</v>
+        <v>0.8216972799716444</v>
       </c>
       <c r="I11">
-        <v>0.03888217720731113</v>
+        <v>0.6109743631494879</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03875038612558157</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.622134218128892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.622398177324698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.35535702889689</v>
+        <v>4.354731108272631</v>
       </c>
       <c r="C12">
-        <v>1.500653911213533</v>
+        <v>1.49968370569718</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2386982949836423</v>
+        <v>0.2390239135949201</v>
       </c>
       <c r="F12">
-        <v>2.677677919669009</v>
+        <v>2.676139123652518</v>
       </c>
       <c r="G12">
-        <v>1.263857460584305</v>
+        <v>0.4216576522503317</v>
       </c>
       <c r="H12">
-        <v>0.6263380626040131</v>
+        <v>0.8429514098219641</v>
       </c>
       <c r="I12">
-        <v>0.03835327244329534</v>
+        <v>0.624648248904208</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03821836342750728</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.666911718916637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.667178037929233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.330428058201221</v>
+        <v>4.329809134250127</v>
       </c>
       <c r="C13">
-        <v>1.491881796301016</v>
+        <v>1.490918660306079</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2373230994972886</v>
+        <v>0.2376469436907911</v>
       </c>
       <c r="F13">
-        <v>2.661689313699895</v>
+        <v>2.660159734648659</v>
       </c>
       <c r="G13">
-        <v>1.25665122895623</v>
+        <v>0.4190818953272668</v>
       </c>
       <c r="H13">
-        <v>0.6233558808227428</v>
+        <v>0.8383443217218058</v>
       </c>
       <c r="I13">
-        <v>0.03846408058238282</v>
+        <v>0.6216752268278256</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03832985040821413</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.657248948417546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.657514778551686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.249302374124909</v>
+        <v>4.248705964389728</v>
       </c>
       <c r="C14">
-        <v>1.463351660930471</v>
+        <v>1.462411413810969</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2328492676356078</v>
+        <v>0.2331673396407794</v>
       </c>
       <c r="F14">
-        <v>2.609747692945348</v>
+        <v>2.608248005460183</v>
       </c>
       <c r="G14">
-        <v>1.233320049114113</v>
+        <v>0.410738229968274</v>
       </c>
       <c r="H14">
-        <v>0.6137377282533478</v>
+        <v>0.8234326519193331</v>
       </c>
       <c r="I14">
-        <v>0.03883727975879836</v>
+        <v>0.6120867782705446</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03870523542853554</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.625809572920787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.626073734861563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.199740342067741</v>
+        <v>4.199157495667123</v>
       </c>
       <c r="C15">
-        <v>1.445934337197571</v>
+        <v>1.445007985659117</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2301171774751651</v>
+        <v>0.2304317248219903</v>
       </c>
       <c r="F15">
-        <v>2.578083058720466</v>
+        <v>2.576601555960764</v>
       </c>
       <c r="G15">
-        <v>1.219157044775315</v>
+        <v>0.4056699956280596</v>
       </c>
       <c r="H15">
-        <v>0.6079273384122885</v>
+        <v>0.814384020955103</v>
       </c>
       <c r="I15">
-        <v>0.03907480086477122</v>
+        <v>0.6062944572940339</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03894407441856274</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.606606847676574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.606869932517881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.91758112950356</v>
+        <v>3.917072758308223</v>
       </c>
       <c r="C16">
-        <v>1.346957140096606</v>
+        <v>1.346108641125852</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2145802567400423</v>
+        <v>0.2148747648302844</v>
       </c>
       <c r="F16">
-        <v>2.398817643963426</v>
+        <v>2.397438579309579</v>
       </c>
       <c r="G16">
-        <v>1.139855446862569</v>
+        <v>0.3772429240691082</v>
       </c>
       <c r="H16">
-        <v>0.5758116164273517</v>
+        <v>0.7637693359457245</v>
       </c>
       <c r="I16">
-        <v>0.04056624160211797</v>
+        <v>0.5742804810270385</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.04044276555322313</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.497351511121323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.497607633778529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.74601256999847</v>
+        <v>3.745547223818505</v>
       </c>
       <c r="C17">
-        <v>1.286922640797684</v>
+        <v>1.286120449917178</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2051482261996895</v>
+        <v>0.2054305733399246</v>
       </c>
       <c r="F17">
-        <v>2.290670611456491</v>
+        <v>2.289352951773012</v>
       </c>
       <c r="G17">
-        <v>1.092761936633295</v>
+        <v>0.3603185602346315</v>
       </c>
       <c r="H17">
-        <v>0.5571011620880384</v>
+        <v>0.7337558423271844</v>
       </c>
       <c r="I17">
-        <v>0.04159077692135504</v>
+        <v>0.5556309684006706</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.04147149993329968</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.430975568774315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.431226774095748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.647841631385916</v>
+        <v>3.647400141712581</v>
       </c>
       <c r="C18">
-        <v>1.252621500586542</v>
+        <v>1.251845461217727</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1997569001491328</v>
+        <v>0.2000322976812043</v>
       </c>
       <c r="F18">
-        <v>2.229089534942588</v>
+        <v>2.227806718490399</v>
       </c>
       <c r="G18">
-        <v>1.066206961885612</v>
+        <v>0.3507597637710091</v>
       </c>
       <c r="H18">
-        <v>0.546680142575859</v>
+        <v>0.7168479324122785</v>
       </c>
       <c r="I18">
-        <v>0.04221783182072691</v>
+        <v>0.5452445068700698</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.04210088620263264</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.393015755810112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.393263916914677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.614685799611379</v>
+        <v>3.614252242297255</v>
       </c>
       <c r="C19">
-        <v>1.241045037082699</v>
+        <v>1.240277773547803</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1979370288507738</v>
+        <v>0.1982100807687459</v>
       </c>
       <c r="F19">
-        <v>2.208341661910012</v>
+        <v>2.207070565854067</v>
       </c>
       <c r="G19">
-        <v>1.057303681282022</v>
+        <v>0.3475522651437899</v>
       </c>
       <c r="H19">
-        <v>0.5432081474741253</v>
+        <v>0.7111818310817313</v>
       </c>
       <c r="I19">
-        <v>0.04243640426680884</v>
+        <v>0.5417841319619825</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.04232023429298515</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.380198776806736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.380445872025589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.764222376725115</v>
+        <v>3.763752544507497</v>
       </c>
       <c r="C20">
-        <v>1.293289212615548</v>
+        <v>1.292482143293455</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2061487301991676</v>
+        <v>0.2064323671509953</v>
       </c>
       <c r="F20">
-        <v>2.302117579133849</v>
+        <v>2.300793433114535</v>
       </c>
       <c r="G20">
-        <v>1.097719201211831</v>
+        <v>0.3621017143989462</v>
       </c>
       <c r="H20">
-        <v>0.5590571419930228</v>
+        <v>0.7369135161255826</v>
       </c>
       <c r="I20">
-        <v>0.04147775027211864</v>
+        <v>0.5575805131333809</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.04135803512570924</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.438018405005906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.438270156593518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.273103588736546</v>
+        <v>4.272500613972397</v>
       </c>
       <c r="C21">
-        <v>1.471719380427317</v>
+        <v>1.470772436565142</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2341616016347672</v>
+        <v>0.2344813667625942</v>
       </c>
       <c r="F21">
-        <v>2.624972409588793</v>
+        <v>2.623463968568018</v>
       </c>
       <c r="G21">
-        <v>1.240146053918224</v>
+        <v>0.4131800244102521</v>
       </c>
       <c r="H21">
-        <v>0.6165457825013405</v>
+        <v>0.8277946519082207</v>
       </c>
       <c r="I21">
-        <v>0.03872578586308606</v>
+        <v>0.6148861342416865</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03859310392575921</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.635032530775661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.635297194369855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.611357117230341</v>
+        <v>4.610657198963906</v>
       </c>
       <c r="C22">
-        <v>1.590876862664174</v>
+        <v>1.589833068003202</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2528317084844076</v>
+        <v>0.25317556663407</v>
       </c>
       <c r="F22">
-        <v>2.84260508925729</v>
+        <v>2.84097076572175</v>
       </c>
       <c r="G22">
-        <v>1.338850649389215</v>
+        <v>0.448427683322592</v>
       </c>
       <c r="H22">
-        <v>0.6576784397834885</v>
+        <v>0.8909322082524511</v>
       </c>
       <c r="I22">
-        <v>0.03731979113120154</v>
+        <v>0.6558936857284934</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03717771551442794</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.766188860273687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.766459548343633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.430247286048598</v>
+        <v>4.429600124086278</v>
       </c>
       <c r="C23">
-        <v>1.527021189769698</v>
+        <v>1.526029643939125</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2428307896894779</v>
+        <v>0.2431617408094766</v>
       </c>
       <c r="F23">
-        <v>2.725787281954126</v>
+        <v>2.724220706542553</v>
       </c>
       <c r="G23">
-        <v>1.285609596725195</v>
+        <v>0.4294289295490614</v>
       </c>
       <c r="H23">
-        <v>0.6353718179716026</v>
+        <v>0.8568617839872559</v>
       </c>
       <c r="I23">
-        <v>0.03803128751979479</v>
+        <v>0.6336543963269179</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03789431889127393</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.695945175509451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.696212895781983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.755988283130989</v>
+        <v>3.755520481768599</v>
       </c>
       <c r="C24">
-        <v>1.290410225818107</v>
+        <v>1.289605363496719</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.20569630558591</v>
+        <v>0.2059793592843633</v>
       </c>
       <c r="F24">
-        <v>2.296940566113719</v>
+        <v>2.295619353984989</v>
       </c>
       <c r="G24">
-        <v>1.095476412445976</v>
+        <v>0.3612950201888196</v>
       </c>
       <c r="H24">
-        <v>0.5581718028828675</v>
+        <v>0.7354848563309275</v>
       </c>
       <c r="I24">
-        <v>0.04152873173621607</v>
+        <v>0.5566980848427505</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.04140921493704042</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.434833718746418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.435085224038488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.04773190081238</v>
+        <v>3.047424295143685</v>
       </c>
       <c r="C25">
-        <v>1.043731483654227</v>
+        <v>1.043109934675925</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1669023933781091</v>
+        <v>0.1671354665047673</v>
       </c>
       <c r="F25">
-        <v>1.85766806722043</v>
+        <v>1.856593797680304</v>
       </c>
       <c r="G25">
-        <v>0.9103445671266996</v>
+        <v>0.2943873100857672</v>
       </c>
       <c r="H25">
-        <v>0.4876990479014225</v>
+        <v>0.6178849696116373</v>
       </c>
       <c r="I25">
-        <v>0.04672267117552131</v>
+        <v>0.486469737299025</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04661883988080895</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.16131324808255</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.16153918819478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.537275214097633</v>
+        <v>2.355109827783224</v>
       </c>
       <c r="C2">
-        <v>0.8666788510947185</v>
+        <v>0.2741979439499005</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1393320507501592</v>
+        <v>0.02850746640528534</v>
       </c>
       <c r="F2">
-        <v>1.548377313086064</v>
+        <v>2.546564339537838</v>
       </c>
       <c r="G2">
-        <v>0.2494318053954316</v>
+        <v>0.0008287257492693989</v>
       </c>
       <c r="H2">
-        <v>0.5401467176211909</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4433919859199662</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05143354527678667</v>
+        <v>0.1031809547044737</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5318306515807905</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1995832968943034</v>
       </c>
       <c r="M2">
-        <v>0.9650210770586725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.911501918883886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.196372748320357</v>
+        <v>2.054149480841829</v>
       </c>
       <c r="C3">
-        <v>0.7493129005208914</v>
+        <v>0.2395018993642282</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1208617458552581</v>
+        <v>0.02792866851901987</v>
       </c>
       <c r="F3">
-        <v>1.346735452264994</v>
+        <v>2.365057589786659</v>
       </c>
       <c r="G3">
-        <v>0.2210788606986753</v>
+        <v>0.0008368555057363833</v>
       </c>
       <c r="H3">
-        <v>0.4918792058415633</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4185811921502633</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0552088367931356</v>
+        <v>0.1043164739279128</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4604977193552529</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1777674670783753</v>
       </c>
       <c r="M3">
-        <v>0.8340020662138059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.78015824266248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.988816219517275</v>
+        <v>1.872426507006026</v>
       </c>
       <c r="C4">
-        <v>0.6780623495473321</v>
+        <v>0.2184258707770255</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1096679715333266</v>
+        <v>0.0275965843710706</v>
       </c>
       <c r="F4">
-        <v>1.225872713966993</v>
+        <v>2.257836004581137</v>
       </c>
       <c r="G4">
-        <v>0.2045465844058043</v>
+        <v>0.0008419821750201726</v>
       </c>
       <c r="H4">
-        <v>0.4641015258196859</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4052191560731586</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05775190038731015</v>
+        <v>0.1051260623993961</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4173616783675911</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.164594530093062</v>
       </c>
       <c r="M4">
-        <v>0.7543660502770919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.702930998072432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.904594445787723</v>
+        <v>1.799053225102227</v>
       </c>
       <c r="C5">
-        <v>0.6491949021742016</v>
+        <v>0.2098825825925559</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1051384582843475</v>
+        <v>0.02746695969732471</v>
       </c>
       <c r="F5">
-        <v>1.177276366238175</v>
+        <v>2.215116827069039</v>
       </c>
       <c r="G5">
-        <v>0.1980074791289113</v>
+        <v>0.0008441067179885874</v>
       </c>
       <c r="H5">
-        <v>0.453206021322444</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4002053091539892</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05884109770447754</v>
+        <v>0.1054824821938567</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3999280415030881</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1592775001407958</v>
       </c>
       <c r="M5">
-        <v>0.7220830891266701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.672245341540872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.890628881641931</v>
+        <v>1.78690821089242</v>
       </c>
       <c r="C6">
-        <v>0.6444106036107371</v>
+        <v>0.2084663891306349</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1043881336318613</v>
+        <v>0.02744577581613328</v>
       </c>
       <c r="F6">
-        <v>1.169244257306161</v>
+        <v>2.208079755476504</v>
       </c>
       <c r="G6">
-        <v>0.1969329966047155</v>
+        <v>0.0008444616741396579</v>
       </c>
       <c r="H6">
-        <v>0.4514212468959116</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.399397718663856</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05902505022121129</v>
+        <v>0.1055432179055202</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3970413271362858</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1583975617476483</v>
       </c>
       <c r="M6">
-        <v>0.71673180518777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.66719535763211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.987679025627756</v>
+        <v>1.871434329857976</v>
       </c>
       <c r="C7">
-        <v>0.6776724000515344</v>
+        <v>0.2183104842348911</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1096067614702392</v>
+        <v>0.02759481331162572</v>
       </c>
       <c r="F7">
-        <v>1.225214776984672</v>
+        <v>2.257256044346363</v>
       </c>
       <c r="G7">
-        <v>0.2044576227471353</v>
+        <v>0.0008420106822216722</v>
       </c>
       <c r="H7">
-        <v>0.4639529226646246</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.405149841139071</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05776638021732161</v>
+        <v>0.1051307640868409</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4171260043146816</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.164522622128537</v>
       </c>
       <c r="M7">
-        <v>0.7539300286311885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.702514076166594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.419314610712888</v>
+        <v>2.250644654999746</v>
       </c>
       <c r="C8">
-        <v>0.8260193446864434</v>
+        <v>0.2621800719466449</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1329298714908234</v>
+        <v>0.02830296004295985</v>
       </c>
       <c r="F8">
-        <v>1.478186693449302</v>
+        <v>2.483049090337758</v>
       </c>
       <c r="G8">
-        <v>0.2394596676595313</v>
+        <v>0.0008315017817636508</v>
       </c>
       <c r="H8">
-        <v>0.5230911223496193</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.434423988452771</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0526862178155989</v>
+        <v>0.1035480560570932</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5070836923715234</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.19201209435181</v>
       </c>
       <c r="M8">
-        <v>0.9196559515797702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.865458452744633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.28389004694526</v>
+        <v>3.023178511852564</v>
       </c>
       <c r="C9">
-        <v>1.125216917036056</v>
+        <v>0.3506090159960706</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1800783094865608</v>
+        <v>0.02988484247185319</v>
       </c>
       <c r="F9">
-        <v>2.001835931638709</v>
+        <v>2.963695471462955</v>
       </c>
       <c r="G9">
-        <v>0.3161727787378652</v>
+        <v>0.0008118932359838473</v>
       </c>
       <c r="H9">
-        <v>0.6559636831834155</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5086404185340143</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04469738374143972</v>
+        <v>0.1014235819811198</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6898496467509929</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2479211017979566</v>
       </c>
       <c r="M9">
-        <v>1.252794816359625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.215811777781056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.936717673903615</v>
+        <v>3.615498782081033</v>
       </c>
       <c r="C10">
-        <v>1.352986286658108</v>
+        <v>0.4179786806114691</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2159571878211892</v>
+        <v>0.03117863531102216</v>
       </c>
       <c r="F10">
-        <v>2.409859629217365</v>
+        <v>3.346638043915533</v>
       </c>
       <c r="G10">
-        <v>0.3791988712187049</v>
+        <v>0.0007979856753964692</v>
       </c>
       <c r="H10">
-        <v>0.7672440422005593</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.576456297835179</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0403306626081914</v>
+        <v>0.100596945147263</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8297257546904717</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2905924138424893</v>
       </c>
       <c r="M10">
-        <v>1.50521309946275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.497736532392935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.239223204907375</v>
+        <v>3.892155038570593</v>
       </c>
       <c r="C11">
-        <v>1.459079949596514</v>
+        <v>0.4493913077525349</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2326437216908914</v>
+        <v>0.03179955213859387</v>
       </c>
       <c r="F11">
-        <v>2.602187385803944</v>
+        <v>3.529030134050117</v>
       </c>
       <c r="G11">
-        <v>0.4097665368920218</v>
+        <v>0.0007917391613477856</v>
       </c>
       <c r="H11">
-        <v>0.8216972799716444</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6109743631494879</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03875038612558157</v>
+        <v>0.1004160952469846</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8950162210921491</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3104460461352119</v>
       </c>
       <c r="M11">
-        <v>1.622398177324698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.632777580960735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.354731108272631</v>
+        <v>3.998127511681332</v>
       </c>
       <c r="C12">
-        <v>1.49968370569718</v>
+        <v>0.4614200475279517</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2390239135949201</v>
+        <v>0.03203970598368144</v>
       </c>
       <c r="F12">
-        <v>2.676139123652518</v>
+        <v>3.59943715218364</v>
       </c>
       <c r="G12">
-        <v>0.4216576522503317</v>
+        <v>0.0007893826516163294</v>
       </c>
       <c r="H12">
-        <v>0.8429514098219641</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.624648248904208</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03821836342750728</v>
+        <v>0.1003791805970806</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9200209260507108</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3180366267717716</v>
       </c>
       <c r="M12">
-        <v>1.667178037929233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.685030319887645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.329809134250127</v>
+        <v>3.975247702499132</v>
       </c>
       <c r="C13">
-        <v>1.490918660306079</v>
+        <v>0.4588231015435156</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2376469436907911</v>
+        <v>0.03198775442915469</v>
       </c>
       <c r="F13">
-        <v>2.660159734648659</v>
+        <v>3.584211400949357</v>
       </c>
       <c r="G13">
-        <v>0.4190818953272668</v>
+        <v>0.0007898898167684703</v>
       </c>
       <c r="H13">
-        <v>0.8383443217218058</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6216752268278256</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03832985040821413</v>
+        <v>0.1003856656800188</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9146225093760876</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3163984854190147</v>
       </c>
       <c r="M13">
-        <v>1.657514778551686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.673724739129426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.248705964389728</v>
+        <v>3.900848166717196</v>
       </c>
       <c r="C14">
-        <v>1.462411413810969</v>
+        <v>0.4503780996190301</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2331673396407794</v>
+        <v>0.03181920665772076</v>
       </c>
       <c r="F14">
-        <v>2.608248005460183</v>
+        <v>3.534794729100753</v>
       </c>
       <c r="G14">
-        <v>0.410738229968274</v>
+        <v>0.000791545127394776</v>
       </c>
       <c r="H14">
-        <v>0.8234326519193331</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6120867782705446</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03870523542853554</v>
+        <v>0.100412403736442</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.897067489867311</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3110690215273877</v>
       </c>
       <c r="M14">
-        <v>1.626073734861563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.637053228191249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.199157495667123</v>
+        <v>3.855439207589882</v>
       </c>
       <c r="C15">
-        <v>1.445007985659117</v>
+        <v>0.4452234193039715</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2304317248219903</v>
+        <v>0.0317166329199523</v>
       </c>
       <c r="F15">
-        <v>2.576601555960764</v>
+        <v>3.504705107479822</v>
       </c>
       <c r="G15">
-        <v>0.4056699956280596</v>
+        <v>0.0007925601301828812</v>
       </c>
       <c r="H15">
-        <v>0.814384020955103</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6062944572940339</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03894407441856274</v>
+        <v>0.1004330051520839</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8863524140792265</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3078142853751018</v>
       </c>
       <c r="M15">
-        <v>1.606869932517881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.614740576905561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.917072758308223</v>
+        <v>3.597577918129616</v>
       </c>
       <c r="C16">
-        <v>1.346108641125852</v>
+        <v>0.4159431259403448</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2148747648302844</v>
+        <v>0.03113873864306704</v>
       </c>
       <c r="F16">
-        <v>2.397438579309579</v>
+        <v>3.334896449131151</v>
       </c>
       <c r="G16">
-        <v>0.3772429240691082</v>
+        <v>0.0007983952956792285</v>
       </c>
       <c r="H16">
-        <v>0.7637693359457245</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5742804810270385</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04044276555322313</v>
+        <v>0.100612980172972</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8254957370459834</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2893045642650378</v>
       </c>
       <c r="M16">
-        <v>1.497607633778529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.489059444708062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.745547223818505</v>
+        <v>3.441350277985748</v>
       </c>
       <c r="C17">
-        <v>1.286120449917178</v>
+        <v>0.3981924026225272</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2054305733399246</v>
+        <v>0.03079275481609045</v>
       </c>
       <c r="F17">
-        <v>2.289352951773012</v>
+        <v>3.232930786389403</v>
       </c>
       <c r="G17">
-        <v>0.3603185602346315</v>
+        <v>0.0008019937368160634</v>
       </c>
       <c r="H17">
-        <v>0.7337558423271844</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5556309684006706</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04147149993329968</v>
+        <v>0.1007757242911431</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7886155175888234</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2780686952971223</v>
       </c>
       <c r="M17">
-        <v>1.431226774095748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.413791330262484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.647400141712581</v>
+        <v>3.352159099383982</v>
       </c>
       <c r="C18">
-        <v>1.251845461217727</v>
+        <v>0.3880531705297301</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2000322976812043</v>
+        <v>0.0305967747478082</v>
       </c>
       <c r="F18">
-        <v>2.227806718490399</v>
+        <v>3.175042940898635</v>
       </c>
       <c r="G18">
-        <v>0.3507597637710091</v>
+        <v>0.0008040711782295863</v>
       </c>
       <c r="H18">
-        <v>0.7168479324122785</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5452445068700698</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04210088620263264</v>
+        <v>0.10088746661744</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7675564488456956</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2716471590577214</v>
       </c>
       <c r="M18">
-        <v>1.393263916914677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.371129139706028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.614252242297255</v>
+        <v>3.322070116713689</v>
       </c>
       <c r="C19">
-        <v>1.240277773547803</v>
+        <v>0.3846316506721337</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1982100807687459</v>
+        <v>0.03053092768479537</v>
       </c>
       <c r="F19">
-        <v>2.207070565854067</v>
+        <v>3.155569051273972</v>
       </c>
       <c r="G19">
-        <v>0.3475522651437899</v>
+        <v>0.0008047759634329843</v>
       </c>
       <c r="H19">
-        <v>0.7111818310817313</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5417841319619825</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04232023429298515</v>
+        <v>0.1009283166306325</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.760451374540466</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2694797325228251</v>
       </c>
       <c r="M19">
-        <v>1.380445872025589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.356788705512074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.763752544507497</v>
+        <v>3.457910781757846</v>
       </c>
       <c r="C20">
-        <v>1.292482143293455</v>
+        <v>0.4000745403145629</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2064323671509953</v>
+        <v>0.03082927025021753</v>
       </c>
       <c r="F20">
-        <v>2.300793433114535</v>
+        <v>3.243705429046429</v>
       </c>
       <c r="G20">
-        <v>0.3621017143989462</v>
+        <v>0.0008016098962363932</v>
       </c>
       <c r="H20">
-        <v>0.7369135161255826</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5575805131333809</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04135803512570924</v>
+        <v>0.1007564990474883</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.792525310827827</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2792604645805028</v>
       </c>
       <c r="M20">
-        <v>1.438270156593518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.42173759085702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.272500613972397</v>
+        <v>3.922666825509225</v>
       </c>
       <c r="C21">
-        <v>1.470772436565142</v>
+        <v>0.4528547774659728</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2344813667625942</v>
+        <v>0.03186857354438821</v>
       </c>
       <c r="F21">
-        <v>2.623463968568018</v>
+        <v>3.549271875882198</v>
       </c>
       <c r="G21">
-        <v>0.4131800244102521</v>
+        <v>0.0007910587030930394</v>
       </c>
       <c r="H21">
-        <v>0.8277946519082207</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6148861342416865</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03859310392575921</v>
+        <v>0.1004036629687377</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9022158478428253</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3126323725037849</v>
       </c>
       <c r="M21">
-        <v>1.635297194369855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.647793067798972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.610657198963906</v>
+        <v>4.233553774395261</v>
       </c>
       <c r="C22">
-        <v>1.589833068003202</v>
+        <v>0.488140856403561</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.25317556663407</v>
+        <v>0.03257733356383596</v>
       </c>
       <c r="F22">
-        <v>2.84097076572175</v>
+        <v>3.75687224852706</v>
       </c>
       <c r="G22">
-        <v>0.448427683322592</v>
+        <v>0.0007842133696925163</v>
       </c>
       <c r="H22">
-        <v>0.8909322082524511</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6558936857284934</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03717771551442794</v>
+        <v>0.1003590738256008</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9755641397555195</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3348699750144704</v>
       </c>
       <c r="M22">
-        <v>1.766459548343633</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.802113746006626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.429600124086278</v>
+        <v>4.066911200789548</v>
       </c>
       <c r="C23">
-        <v>1.526029643939125</v>
+        <v>0.4692270504765474</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2431617408094766</v>
+        <v>0.03219621477310497</v>
       </c>
       <c r="F23">
-        <v>2.724220706542553</v>
+        <v>3.645290961748117</v>
       </c>
       <c r="G23">
-        <v>0.4294289295490614</v>
+        <v>0.0007878631818980729</v>
       </c>
       <c r="H23">
-        <v>0.8568617839872559</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6336543963269179</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03789431889127393</v>
+        <v>0.1003645611878632</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9362496630176054</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3229590608020203</v>
       </c>
       <c r="M23">
-        <v>1.696212895781983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.719097173397955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.755520481768599</v>
+        <v>3.450421840364584</v>
       </c>
       <c r="C24">
-        <v>1.289605363496719</v>
+        <v>0.3992234223365756</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2059793592843633</v>
+        <v>0.03081275252141147</v>
       </c>
       <c r="F24">
-        <v>2.295619353984989</v>
+        <v>3.238831940138994</v>
       </c>
       <c r="G24">
-        <v>0.3612950201888196</v>
+        <v>0.0008017834033888239</v>
       </c>
       <c r="H24">
-        <v>0.7354848563309275</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5566980848427505</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04140921493704042</v>
+        <v>0.1007651344163385</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7907572483074574</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2787215476246132</v>
       </c>
       <c r="M24">
-        <v>1.435085224038488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.418143195302378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.047424295143685</v>
+        <v>2.810405170763602</v>
       </c>
       <c r="C25">
-        <v>1.043109934675925</v>
+        <v>0.3263394901116783</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1671354665047673</v>
+        <v>0.0294349185564915</v>
       </c>
       <c r="F25">
-        <v>1.856593797680304</v>
+        <v>2.828961638464023</v>
       </c>
       <c r="G25">
-        <v>0.2943873100857672</v>
+        <v>0.0008171016043727586</v>
       </c>
       <c r="H25">
-        <v>0.6178849696116373</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.486469737299025</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04661883988080895</v>
+        <v>0.1018803081639419</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6395596026128274</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2325455784996819</v>
       </c>
       <c r="M25">
-        <v>1.16153918819478</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.117177598161106</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.355109827783224</v>
+        <v>1.064228692900116</v>
       </c>
       <c r="C2">
-        <v>0.2741979439499005</v>
+        <v>0.1635304024522526</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02850746640528534</v>
+        <v>1.366439148719635</v>
       </c>
       <c r="F2">
-        <v>2.546564339537838</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008287257492693989</v>
+        <v>0.9410416076019601</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6140233697221333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1031809547044737</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5318306515807905</v>
+        <v>1.131606129497641</v>
       </c>
       <c r="L2">
-        <v>0.1995832968943034</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.911501918883886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.054149480841829</v>
+        <v>0.9197475255179484</v>
       </c>
       <c r="C3">
-        <v>0.2395018993642282</v>
+        <v>0.1439214906678501</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02792866851901987</v>
+        <v>1.171095476437472</v>
       </c>
       <c r="F3">
-        <v>2.365057589786659</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008368555057363833</v>
+        <v>0.8769847812404947</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5935022259068745</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1043164739279128</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4604977193552529</v>
+        <v>0.9786595043006798</v>
       </c>
       <c r="L3">
-        <v>0.1777674670783753</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.78015824266248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.872426507006026</v>
+        <v>0.8319360454081561</v>
       </c>
       <c r="C4">
-        <v>0.2184258707770255</v>
+        <v>0.1319729888713823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0275965843710706</v>
+        <v>1.053726320937386</v>
       </c>
       <c r="F4">
-        <v>2.257836004581137</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008419821750201726</v>
+        <v>0.840279127031252</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5823184578534182</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1051260623993961</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4173616783675911</v>
+        <v>0.8856317103085871</v>
       </c>
       <c r="L4">
-        <v>0.164594530093062</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.702930998072432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.799053225102227</v>
+        <v>0.7963417565096051</v>
       </c>
       <c r="C5">
-        <v>0.2098825825925559</v>
+        <v>0.1271211499557552</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02746695969732471</v>
+        <v>1.006443504422919</v>
       </c>
       <c r="F5">
-        <v>2.215116827069039</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008441067179885874</v>
+        <v>0.8259229377177206</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5780906329965063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1054824821938567</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3999280415030881</v>
+        <v>0.8479040843393761</v>
       </c>
       <c r="L5">
-        <v>0.1592775001407958</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.672245341540872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.78690821089242</v>
+        <v>0.7904417837379754</v>
       </c>
       <c r="C6">
-        <v>0.2084663891306349</v>
+        <v>0.1263163916809305</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02744577581613328</v>
+        <v>0.9986224424270915</v>
       </c>
       <c r="F6">
-        <v>2.208079755476504</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008444616741396579</v>
+        <v>0.8235738190797406</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5774077815071905</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1055432179055202</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3970413271362858</v>
+        <v>0.8416493292614859</v>
       </c>
       <c r="L6">
-        <v>0.1583975617476483</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.66719535763211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.871434329857976</v>
+        <v>0.8314552871850367</v>
       </c>
       <c r="C7">
-        <v>0.2183104842348911</v>
+        <v>0.1319074925207673</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02759481331162572</v>
+        <v>1.05308656366465</v>
       </c>
       <c r="F7">
-        <v>2.257256044346363</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008420106822216722</v>
+        <v>0.8400831523032792</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5822601386521029</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1051307640868409</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4171260043146816</v>
+        <v>0.8851222158425855</v>
       </c>
       <c r="L7">
-        <v>0.164522622128537</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.702514076166594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.250644654999746</v>
+        <v>1.014201485151261</v>
       </c>
       <c r="C8">
-        <v>0.2621800719466449</v>
+        <v>0.1567466487928897</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02830296004295985</v>
+        <v>1.298486829777346</v>
       </c>
       <c r="F8">
-        <v>2.483049090337758</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008315017817636508</v>
+        <v>0.9183731308113749</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6066370946978594</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1035480560570932</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5070836923715234</v>
+        <v>1.078661956389055</v>
       </c>
       <c r="L8">
-        <v>0.19201209435181</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.865458452744633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.023178511852564</v>
+        <v>1.381562549799867</v>
       </c>
       <c r="C9">
-        <v>0.3506090159960706</v>
+        <v>0.206472671469939</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02988484247185319</v>
+        <v>1.805265076931079</v>
       </c>
       <c r="F9">
-        <v>2.963695471462955</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0008118932359838473</v>
+        <v>1.095648026155132</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6669969556974706</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1014235819811198</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6898496467509929</v>
+        <v>1.467197904035345</v>
       </c>
       <c r="L9">
-        <v>0.2479211017979566</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.215811777781056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.615498782081033</v>
+        <v>1.659849723766257</v>
       </c>
       <c r="C10">
-        <v>0.4179786806114691</v>
+        <v>0.2440889305281928</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03117863531102216</v>
+        <v>2.201389057284985</v>
       </c>
       <c r="F10">
-        <v>3.346638043915533</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007979856753964692</v>
+        <v>1.244917512728307</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7210544891540849</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.100596945147263</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8297257546904717</v>
+        <v>1.761300901510822</v>
       </c>
       <c r="L10">
-        <v>0.2905924138424893</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.497736532392935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.892155038570593</v>
+        <v>1.789018513790211</v>
       </c>
       <c r="C11">
-        <v>0.4493913077525349</v>
+        <v>0.2615584243219757</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03179955213859387</v>
+        <v>2.388955044783316</v>
       </c>
       <c r="F11">
-        <v>3.529030134050117</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007917391613477856</v>
+        <v>1.318128580153626</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7482857795600921</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1004160952469846</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8950162210921491</v>
+        <v>1.897789775128928</v>
       </c>
       <c r="L11">
-        <v>0.3104460461352119</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.632777580960735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.998127511681332</v>
+        <v>1.838373197011151</v>
       </c>
       <c r="C12">
-        <v>0.4614200475279517</v>
+        <v>0.2682370099804103</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03203970598368144</v>
+        <v>2.461258720559499</v>
       </c>
       <c r="F12">
-        <v>3.59943715218364</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007893826516163294</v>
+        <v>1.346728391050391</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7590285356924085</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1003791805970806</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9200209260507108</v>
+        <v>1.949941350376946</v>
       </c>
       <c r="L12">
-        <v>0.3180366267717716</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.685030319887645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.975247702499132</v>
+        <v>1.82772292390311</v>
       </c>
       <c r="C13">
-        <v>0.4588231015435156</v>
+        <v>0.2667956357069272</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03198775442915469</v>
+        <v>2.445626222259179</v>
       </c>
       <c r="F13">
-        <v>3.584211400949357</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007898898167684703</v>
+        <v>1.340527965526405</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7566948381622467</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1003856656800188</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9146225093760876</v>
+        <v>1.938687484822026</v>
       </c>
       <c r="L13">
-        <v>0.3163984854190147</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.673724739129426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.900848166717196</v>
+        <v>1.793069668830128</v>
       </c>
       <c r="C14">
-        <v>0.4503780996190301</v>
+        <v>0.2621065335082875</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03181920665772076</v>
+        <v>2.394876560000014</v>
       </c>
       <c r="F14">
-        <v>3.534794729100753</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.000791545127394776</v>
+        <v>1.320463236976053</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7491606394422377</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.100412403736442</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.897067489867311</v>
+        <v>1.902070488649485</v>
       </c>
       <c r="L14">
-        <v>0.3110690215273877</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.637053228191249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.855439207589882</v>
+        <v>1.771903285133362</v>
       </c>
       <c r="C15">
-        <v>0.4452234193039715</v>
+        <v>0.2592429435716781</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0317166329199523</v>
+        <v>2.363964203074701</v>
       </c>
       <c r="F15">
-        <v>3.504705107479822</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007925601301828812</v>
+        <v>1.3082907601393</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7446034732237479</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1004330051520839</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8863524140792265</v>
+        <v>1.879704729115161</v>
       </c>
       <c r="L15">
-        <v>0.3078142853751018</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.614740576905561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.597577918129616</v>
+        <v>1.651465909662676</v>
       </c>
       <c r="C16">
-        <v>0.4159431259403448</v>
+        <v>0.2429554279295871</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03113873864306704</v>
+        <v>2.189297214555765</v>
       </c>
       <c r="F16">
-        <v>3.334896449131151</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007983952956792285</v>
+        <v>1.240249130976565</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7193322109808094</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.100612980172972</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8254957370459834</v>
+        <v>1.75244179004028</v>
       </c>
       <c r="L16">
-        <v>0.2893045642650378</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.489059444708062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.441350277985748</v>
+        <v>1.578288585165382</v>
       </c>
       <c r="C17">
-        <v>0.3981924026225272</v>
+        <v>0.233063063723705</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03079275481609045</v>
+        <v>2.084175630374375</v>
       </c>
       <c r="F17">
-        <v>3.232930786389403</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008019937368160634</v>
+        <v>1.199943078859434</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7045396747102188</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1007757242911431</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7886155175888234</v>
+        <v>1.675113878014486</v>
       </c>
       <c r="L17">
-        <v>0.2780686952971223</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.413791330262484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.352159099383982</v>
+        <v>1.536436490336996</v>
       </c>
       <c r="C18">
-        <v>0.3880531705297301</v>
+        <v>0.2274061004559513</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0305967747478082</v>
+        <v>2.024391074478984</v>
       </c>
       <c r="F18">
-        <v>3.175042940898635</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008040711782295863</v>
+        <v>1.177252086659223</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6962764749333985</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.10088746661744</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7675564488456956</v>
+        <v>1.630885801357863</v>
       </c>
       <c r="L18">
-        <v>0.2716471590577214</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.371129139706028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.322070116713689</v>
+        <v>1.522304875961737</v>
       </c>
       <c r="C19">
-        <v>0.3846316506721337</v>
+        <v>0.2254960610525387</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03053092768479537</v>
+        <v>2.004259528816718</v>
       </c>
       <c r="F19">
-        <v>3.155569051273972</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0008047759634329843</v>
+        <v>1.169650598404104</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6935193383457658</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1009283166306325</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.760451374540466</v>
+        <v>1.615951473624023</v>
       </c>
       <c r="L19">
-        <v>0.2694797325228251</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.356788705512074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.457910781757846</v>
+        <v>1.58605336375723</v>
       </c>
       <c r="C20">
-        <v>0.4000745403145629</v>
+        <v>0.23411264131704</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03082927025021753</v>
+        <v>2.095294305244224</v>
       </c>
       <c r="F20">
-        <v>3.243705429046429</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008016098962363932</v>
+        <v>1.204182036709625</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7060886517544702</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1007564990474883</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.792525310827827</v>
+        <v>1.683319275127872</v>
       </c>
       <c r="L20">
-        <v>0.2792604645805028</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.42173759085702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.922666825509225</v>
+        <v>1.803235580569719</v>
       </c>
       <c r="C21">
-        <v>0.4528547774659728</v>
+        <v>0.2634820163081883</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03186857354438821</v>
+        <v>2.409746417360466</v>
       </c>
       <c r="F21">
-        <v>3.549271875882198</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007910587030930394</v>
+        <v>1.326331971301073</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7513614802154791</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1004036629687377</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9022158478428253</v>
+        <v>1.912812461103499</v>
       </c>
       <c r="L21">
-        <v>0.3126323725037849</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.647793067798972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.233553774395261</v>
+        <v>1.94778888223928</v>
       </c>
       <c r="C22">
-        <v>0.488140856403561</v>
+        <v>0.2830522041143126</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03257733356383596</v>
+        <v>2.6228269371869</v>
       </c>
       <c r="F22">
-        <v>3.75687224852706</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007842133696925163</v>
+        <v>1.411336332519284</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.783490285578722</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1003590738256008</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9755641397555195</v>
+        <v>2.065561138556802</v>
       </c>
       <c r="L22">
-        <v>0.3348699750144704</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.802113746006626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.066911200789548</v>
+        <v>1.870373014573914</v>
       </c>
       <c r="C23">
-        <v>0.4692270504765474</v>
+        <v>0.2725684699047264</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03219621477310497</v>
+        <v>2.508328145826354</v>
       </c>
       <c r="F23">
-        <v>3.645290961748117</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007878631818980729</v>
+        <v>1.365453086271884</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7660912927896391</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1003645611878632</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9362496630176054</v>
+        <v>1.983754967988062</v>
       </c>
       <c r="L23">
-        <v>0.3229590608020203</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.719097173397955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.450421840364584</v>
+        <v>1.582542231947997</v>
       </c>
       <c r="C24">
-        <v>0.3992234223365756</v>
+        <v>0.2336380338152253</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03081275252141147</v>
+        <v>2.090265539783928</v>
       </c>
       <c r="F24">
-        <v>3.238831940138994</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008017834033888239</v>
+        <v>1.202264112470885</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7053876116471827</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1007651344163385</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7907572483074574</v>
+        <v>1.679608908275867</v>
       </c>
       <c r="L24">
-        <v>0.2787215476246132</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.418143195302378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.810405170763602</v>
+        <v>1.280938543928499</v>
       </c>
       <c r="C25">
-        <v>0.3263394901116783</v>
+        <v>0.1928673812635537</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0294349185564915</v>
+        <v>1.664651142721723</v>
       </c>
       <c r="F25">
-        <v>2.828961638464023</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008171016043727586</v>
+        <v>1.044709678874597</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6491255421962308</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1018803081639419</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6395596026128274</v>
+        <v>1.360820706796915</v>
       </c>
       <c r="L25">
-        <v>0.2325455784996819</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.117177598161106</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.064228692900116</v>
+        <v>0.3943215398501536</v>
       </c>
       <c r="C2">
-        <v>0.1635304024522526</v>
+        <v>0.0527517350114266</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.366439148719635</v>
+        <v>0.4118363392397839</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.9410416076019601</v>
+        <v>0.8821953957540103</v>
       </c>
       <c r="H2">
-        <v>0.6140233697221333</v>
+        <v>0.9047491368009872</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.131606129497641</v>
+        <v>0.3704063069657764</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9197475255179484</v>
+        <v>0.3543074924380676</v>
       </c>
       <c r="C3">
-        <v>0.1439214906678501</v>
+        <v>0.0468462589372507</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.171095476437472</v>
+        <v>0.3592817994173032</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.8769847812404947</v>
+        <v>0.8708663079471251</v>
       </c>
       <c r="H3">
-        <v>0.5935022259068745</v>
+        <v>0.9047311778077329</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9786595043006798</v>
+        <v>0.3271482789718334</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8319360454081561</v>
+        <v>0.3298725098463819</v>
       </c>
       <c r="C4">
-        <v>0.1319729888713823</v>
+        <v>0.04319963404847726</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.053726320937386</v>
+        <v>0.3271148072235803</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.840279127031252</v>
+        <v>0.8645514126151568</v>
       </c>
       <c r="H4">
-        <v>0.5823184578534182</v>
+        <v>0.9051962245440137</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8856317103085871</v>
+        <v>0.3006581513086815</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7963417565096051</v>
+        <v>0.319948619015662</v>
       </c>
       <c r="C5">
-        <v>0.1271211499557552</v>
+        <v>0.04170836536081879</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.006443504422919</v>
+        <v>0.3140300387691326</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.8259229377177206</v>
+        <v>0.8621380369472149</v>
       </c>
       <c r="H5">
-        <v>0.5780906329965063</v>
+        <v>0.9055049782747204</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8479040843393761</v>
+        <v>0.2898807807689252</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7904417837379754</v>
+        <v>0.3183027894471593</v>
       </c>
       <c r="C6">
-        <v>0.1263163916809305</v>
+        <v>0.04146042347328205</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9986224424270915</v>
+        <v>0.3118586857476089</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.8235738190797406</v>
+        <v>0.8617469247968188</v>
       </c>
       <c r="H6">
-        <v>0.5774077815071905</v>
+        <v>0.9055634349114712</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8416493292614859</v>
+        <v>0.288092263765293</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8314552871850367</v>
+        <v>0.3297385369917265</v>
       </c>
       <c r="C7">
-        <v>0.1319074925207673</v>
+        <v>0.04317954355491338</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.05308656366465</v>
+        <v>0.3269382487970063</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.8400831523032792</v>
+        <v>0.8645182188225959</v>
       </c>
       <c r="H7">
-        <v>0.5822601386521029</v>
+        <v>0.9051999063240714</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8851222158425855</v>
+        <v>0.3005127329634263</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014201485151261</v>
+        <v>0.3804968594102149</v>
       </c>
       <c r="C8">
-        <v>0.1567466487928897</v>
+        <v>0.05071977835839903</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.298486829777346</v>
+        <v>0.3936931812373956</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.9183731308113749</v>
+        <v>0.878155289722244</v>
       </c>
       <c r="H8">
-        <v>0.6066370946978594</v>
+        <v>0.904643850678255</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.078661956389055</v>
+        <v>0.3554762044113602</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.381562549799867</v>
+        <v>0.4811050247502919</v>
       </c>
       <c r="C9">
-        <v>0.206472671469939</v>
+        <v>0.0653453898107017</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.805265076931079</v>
+        <v>0.5255045689635836</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.095648026155132</v>
+        <v>0.9100435444185564</v>
       </c>
       <c r="H9">
-        <v>0.6669969556974706</v>
+        <v>0.9073529698789855</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.467197904035345</v>
+        <v>0.4638314700142416</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.659849723766257</v>
+        <v>0.5556965594243195</v>
       </c>
       <c r="C10">
-        <v>0.2440889305281928</v>
+        <v>0.0759980490102663</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.201389057284985</v>
+        <v>0.6230434594760226</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.244917512728307</v>
+        <v>0.9366929368805188</v>
       </c>
       <c r="H10">
-        <v>0.7210544891540849</v>
+        <v>0.9116916547433505</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.761300901510822</v>
+        <v>0.5438154295572417</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.789018513790211</v>
+        <v>0.5897820227657746</v>
       </c>
       <c r="C11">
-        <v>0.2615584243219757</v>
+        <v>0.08082529592175547</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.388955044783316</v>
+        <v>0.6675999972294306</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.318128580153626</v>
+        <v>0.9495342093098884</v>
       </c>
       <c r="H11">
-        <v>0.7482857795600921</v>
+        <v>0.914182370661166</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.897789775128928</v>
+        <v>0.5802901490773138</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.838373197011151</v>
+        <v>0.6027116342969805</v>
       </c>
       <c r="C12">
-        <v>0.2682370099804103</v>
+        <v>0.08265063937962225</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.461258720559499</v>
+        <v>0.684501553253611</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.346728391050391</v>
+        <v>0.9545015902254477</v>
       </c>
       <c r="H12">
-        <v>0.7590285356924085</v>
+        <v>0.9152004401582019</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.949941350376946</v>
+        <v>0.5941154213950881</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.82772292390311</v>
+        <v>0.5999260222168061</v>
       </c>
       <c r="C13">
-        <v>0.2667956357069272</v>
+        <v>0.08225763502056793</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.445626222259179</v>
+        <v>0.6808601761435114</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.340527965526405</v>
+        <v>0.9534270986802937</v>
       </c>
       <c r="H13">
-        <v>0.7566948381622467</v>
+        <v>0.9149778412774481</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.938687484822026</v>
+        <v>0.5911373162169866</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.793069668830128</v>
+        <v>0.590845304269294</v>
       </c>
       <c r="C14">
-        <v>0.2621065335082875</v>
+        <v>0.08097552039330935</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.394876560000014</v>
+        <v>0.6689899048411121</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.320463236976053</v>
+        <v>0.9499407730892528</v>
       </c>
       <c r="H14">
-        <v>0.7491606394422377</v>
+        <v>0.9142646238393013</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.902070488649485</v>
+        <v>0.581427299056827</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.771903285133362</v>
+        <v>0.5852859956216605</v>
       </c>
       <c r="C15">
-        <v>0.2592429435716781</v>
+        <v>0.08018984742766122</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.363964203074701</v>
+        <v>0.6617228606311869</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.3082907601393</v>
+        <v>0.9478189700155895</v>
       </c>
       <c r="H15">
-        <v>0.7446034732237479</v>
+        <v>0.9138375265225989</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.879704729115161</v>
+        <v>0.5754813437653752</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.651465909662676</v>
+        <v>0.5534720916795095</v>
       </c>
       <c r="C16">
-        <v>0.2429554279295871</v>
+        <v>0.07568220575016937</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.189297214555765</v>
+        <v>0.6201355133469519</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.240249130976565</v>
+        <v>0.9358683015151712</v>
       </c>
       <c r="H16">
-        <v>0.7193322109808094</v>
+        <v>0.9115393307049544</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.75244179004028</v>
+        <v>0.5414335410331148</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.578288585165382</v>
+        <v>0.5339946686565611</v>
       </c>
       <c r="C17">
-        <v>0.233063063723705</v>
+        <v>0.07291216504223996</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.084175630374375</v>
+        <v>0.5946721680093816</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.199943078859434</v>
+        <v>0.9287219108923637</v>
       </c>
       <c r="H17">
-        <v>0.7045396747102188</v>
+        <v>0.9102622690151918</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.675113878014486</v>
+        <v>0.520569408402821</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.536436490336996</v>
+        <v>0.5228062004927381</v>
       </c>
       <c r="C18">
-        <v>0.2274061004559513</v>
+        <v>0.07131714697558778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.024391074478984</v>
+        <v>0.5800436577191022</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.177252086659223</v>
+        <v>0.9246790260483806</v>
       </c>
       <c r="H18">
-        <v>0.6962764749333985</v>
+        <v>0.9095763692740206</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.630885801357863</v>
+        <v>0.5085773333107113</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.522304875961737</v>
+        <v>0.5190204521528585</v>
       </c>
       <c r="C19">
-        <v>0.2254960610525387</v>
+        <v>0.07077679654878466</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.004259528816718</v>
+        <v>0.5750936036487815</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.169650598404104</v>
+        <v>0.9233217312769142</v>
       </c>
       <c r="H19">
-        <v>0.6935193383457658</v>
+        <v>0.9093524716151364</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.615951473624023</v>
+        <v>0.5045184633392239</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.58605336375723</v>
+        <v>0.5360665792064481</v>
       </c>
       <c r="C20">
-        <v>0.23411264131704</v>
+        <v>0.07320722273964009</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.095294305244224</v>
+        <v>0.5973809743451568</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.204182036709625</v>
+        <v>0.9294756573561642</v>
       </c>
       <c r="H20">
-        <v>0.7060886517544702</v>
+        <v>0.9103931772584417</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.683319275127872</v>
+        <v>0.522789557856953</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803235580569719</v>
+        <v>0.5935119280463255</v>
       </c>
       <c r="C21">
-        <v>0.2634820163081883</v>
+        <v>0.08135217943897999</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.409746417360466</v>
+        <v>0.6724756869732715</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.326331971301073</v>
+        <v>0.9509619397249196</v>
       </c>
       <c r="H21">
-        <v>0.7513614802154791</v>
+        <v>0.9144720762744782</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.912812461103499</v>
+        <v>0.5842790096088777</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.94778888223928</v>
+        <v>0.6311851705483775</v>
       </c>
       <c r="C22">
-        <v>0.2830522041143126</v>
+        <v>0.08666007779198992</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.6228269371869</v>
+        <v>0.7217243137598643</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.411336332519284</v>
+        <v>0.9656152060644843</v>
       </c>
       <c r="H22">
-        <v>0.783490285578722</v>
+        <v>0.9175746398032345</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.065561138556802</v>
+        <v>0.6245423083961725</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.870373014573914</v>
+        <v>0.6110663680203743</v>
       </c>
       <c r="C23">
-        <v>0.2725684699047264</v>
+        <v>0.08382853255230316</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.508328145826354</v>
+        <v>0.6954230906676457</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.365453086271884</v>
+        <v>0.9577381432309267</v>
       </c>
       <c r="H23">
-        <v>0.7660912927896391</v>
+        <v>0.915878599012899</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.983754967988062</v>
+        <v>0.6030459687497967</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.582542231947997</v>
+        <v>0.5351298392971557</v>
       </c>
       <c r="C24">
-        <v>0.2336380338152253</v>
+        <v>0.07307383489960273</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.090265539783928</v>
+        <v>0.5961562898473147</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.202264112470885</v>
+        <v>0.9291346841264385</v>
       </c>
       <c r="H24">
-        <v>0.7053876116471827</v>
+        <v>0.9103338432273631</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.679608908275867</v>
+        <v>0.5217858189849096</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.280938543928499</v>
+        <v>0.4537709686093194</v>
       </c>
       <c r="C25">
-        <v>0.1928673812635537</v>
+        <v>0.06140545293828836</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.664651142721723</v>
+        <v>0.4897342810580199</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>1.044709678874597</v>
+        <v>0.90085735671218</v>
       </c>
       <c r="H25">
-        <v>0.6491255421962308</v>
+        <v>0.9062100200256111</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.360820706796915</v>
+        <v>0.434454553461336</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3943215398501536</v>
+        <v>1.064228692900116</v>
       </c>
       <c r="C2">
-        <v>0.0527517350114266</v>
+        <v>0.1635304024522526</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4118363392397839</v>
+        <v>1.366439148719607</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8821953957540103</v>
+        <v>0.9410416076020027</v>
       </c>
       <c r="H2">
-        <v>0.9047491368009872</v>
+        <v>0.6140233697221191</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3704063069657764</v>
+        <v>1.131606129497726</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3543074924380676</v>
+        <v>0.9197475255177494</v>
       </c>
       <c r="C3">
-        <v>0.0468462589372507</v>
+        <v>0.143921490667509</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3592817994173032</v>
+        <v>1.171095476437472</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.8708663079471251</v>
+        <v>0.8769847812405089</v>
       </c>
       <c r="H3">
-        <v>0.9047311778077329</v>
+        <v>0.5935022259068745</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3271482789718334</v>
+        <v>0.9786595043006798</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3298725098463819</v>
+        <v>0.8319360454081277</v>
       </c>
       <c r="C4">
-        <v>0.04319963404847726</v>
+        <v>0.1319729888710128</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3271148072235803</v>
+        <v>1.053726320937415</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.8645514126151568</v>
+        <v>0.8402791270312093</v>
       </c>
       <c r="H4">
-        <v>0.9051962245440137</v>
+        <v>0.5823184578535319</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3006581513086815</v>
+        <v>0.8856317103085019</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.319948619015662</v>
+        <v>0.796341756509662</v>
       </c>
       <c r="C5">
-        <v>0.04170836536081879</v>
+        <v>0.1271211499557694</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3140300387691326</v>
+        <v>1.006443504422933</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.8621380369472149</v>
+        <v>0.8259229377177064</v>
       </c>
       <c r="H5">
-        <v>0.9055049782747204</v>
+        <v>0.5780906329965347</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2898807807689252</v>
+        <v>0.8479040843393477</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3183027894471593</v>
+        <v>0.7904417837380606</v>
       </c>
       <c r="C6">
-        <v>0.04146042347328205</v>
+        <v>0.1263163916809162</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3118586857476089</v>
+        <v>0.9986224424270773</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.8617469247968188</v>
+        <v>0.823573819079769</v>
       </c>
       <c r="H6">
-        <v>0.9055634349114712</v>
+        <v>0.5774077815073184</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.288092263765293</v>
+        <v>0.8416493292615428</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3297385369917265</v>
+        <v>0.8314552871847525</v>
       </c>
       <c r="C7">
-        <v>0.04317954355491338</v>
+        <v>0.1319074925207531</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3269382487970063</v>
+        <v>1.053086563664678</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.8645182188225959</v>
+        <v>0.8400831523032508</v>
       </c>
       <c r="H7">
-        <v>0.9051999063240714</v>
+        <v>0.5822601386521029</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3005127329634263</v>
+        <v>0.8851222158425855</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3804968594102149</v>
+        <v>1.014201485151347</v>
       </c>
       <c r="C8">
-        <v>0.05071977835839903</v>
+        <v>0.156746648792776</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3936931812373956</v>
+        <v>1.29848682977736</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.878155289722244</v>
+        <v>0.9183731308113181</v>
       </c>
       <c r="H8">
-        <v>0.904643850678255</v>
+        <v>0.6066370946978594</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3554762044113602</v>
+        <v>1.078661956389055</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4811050247502919</v>
+        <v>1.381562549799895</v>
       </c>
       <c r="C9">
-        <v>0.0653453898107017</v>
+        <v>0.2064726714700527</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5255045689635836</v>
+        <v>1.80526507693105</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.9100435444185564</v>
+        <v>1.095648026155132</v>
       </c>
       <c r="H9">
-        <v>0.9073529698789855</v>
+        <v>0.6669969556974706</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4638314700142416</v>
+        <v>1.46719790403526</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5556965594243195</v>
+        <v>1.659849723766342</v>
       </c>
       <c r="C10">
-        <v>0.0759980490102663</v>
+        <v>0.2440889305283349</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6230434594760226</v>
+        <v>2.201389057284942</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.9366929368805188</v>
+        <v>1.244917512728307</v>
       </c>
       <c r="H10">
-        <v>0.9116916547433505</v>
+        <v>0.7210544891540849</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5438154295572417</v>
+        <v>1.761300901510793</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5897820227657746</v>
+        <v>1.789018513790268</v>
       </c>
       <c r="C11">
-        <v>0.08082529592175547</v>
+        <v>0.2615584243219757</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6675999972294306</v>
+        <v>2.38895504478333</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.9495342093098884</v>
+        <v>1.318128580153683</v>
       </c>
       <c r="H11">
-        <v>0.914182370661166</v>
+        <v>0.7482857795600921</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5802901490773138</v>
+        <v>1.897789775128871</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6027116342969805</v>
+        <v>1.838373197011208</v>
       </c>
       <c r="C12">
-        <v>0.08265063937962225</v>
+        <v>0.2682370099802824</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.684501553253611</v>
+        <v>2.461258720559485</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.9545015902254477</v>
+        <v>1.346728391050306</v>
       </c>
       <c r="H12">
-        <v>0.9152004401582019</v>
+        <v>0.7590285356922948</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5941154213950881</v>
+        <v>1.949941350376918</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5999260222168061</v>
+        <v>1.827722923903224</v>
       </c>
       <c r="C13">
-        <v>0.08225763502056793</v>
+        <v>0.2667956357068846</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6808601761435114</v>
+        <v>2.445626222259193</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.9534270986802937</v>
+        <v>1.340527965526462</v>
       </c>
       <c r="H13">
-        <v>0.9149778412774481</v>
+        <v>0.7566948381623604</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5911373162169866</v>
+        <v>1.938687484821855</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.590845304269294</v>
+        <v>1.793069668829872</v>
       </c>
       <c r="C14">
-        <v>0.08097552039330935</v>
+        <v>0.2621065335081454</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6689899048411121</v>
+        <v>2.394876560000043</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.9499407730892528</v>
+        <v>1.320463236976025</v>
       </c>
       <c r="H14">
-        <v>0.9142646238393013</v>
+        <v>0.7491606394423229</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.581427299056827</v>
+        <v>1.902070488649429</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5852859956216605</v>
+        <v>1.771903285133476</v>
       </c>
       <c r="C15">
-        <v>0.08018984742766122</v>
+        <v>0.2592429435716639</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6617228606311869</v>
+        <v>2.363964203074701</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.9478189700155895</v>
+        <v>1.308290760139244</v>
       </c>
       <c r="H15">
-        <v>0.9138375265225989</v>
+        <v>0.7446034732237479</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5754813437653752</v>
+        <v>1.879704729115218</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5534720916795095</v>
+        <v>1.651465909662676</v>
       </c>
       <c r="C16">
-        <v>0.07568220575016937</v>
+        <v>0.242955427929445</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6201355133469519</v>
+        <v>2.189297214555808</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.9358683015151712</v>
+        <v>1.240249130976565</v>
       </c>
       <c r="H16">
-        <v>0.9115393307049544</v>
+        <v>0.7193322109808094</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5414335410331148</v>
+        <v>1.75244179004028</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5339946686565611</v>
+        <v>1.578288585165353</v>
       </c>
       <c r="C17">
-        <v>0.07291216504223996</v>
+        <v>0.2330630637238045</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5946721680093816</v>
+        <v>2.084175630374389</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.9287219108923637</v>
+        <v>1.199943078859377</v>
       </c>
       <c r="H17">
-        <v>0.9102622690151918</v>
+        <v>0.7045396747102188</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.520569408402821</v>
+        <v>1.675113878014486</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5228062004927381</v>
+        <v>1.536436490336939</v>
       </c>
       <c r="C18">
-        <v>0.07131714697558778</v>
+        <v>0.2274061004562498</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5800436577191022</v>
+        <v>2.024391074478942</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.9246790260483806</v>
+        <v>1.177252086659195</v>
       </c>
       <c r="H18">
-        <v>0.9095763692740206</v>
+        <v>0.6962764749333701</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5085773333107113</v>
+        <v>1.630885801357834</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5190204521528585</v>
+        <v>1.522304875961765</v>
       </c>
       <c r="C19">
-        <v>0.07077679654878466</v>
+        <v>0.2254960610526666</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5750936036487815</v>
+        <v>2.004259528816704</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.9233217312769142</v>
+        <v>1.169650598404047</v>
       </c>
       <c r="H19">
-        <v>0.9093524716151364</v>
+        <v>0.6935193383458795</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5045184633392239</v>
+        <v>1.615951473623937</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5360665792064481</v>
+        <v>1.586053363757287</v>
       </c>
       <c r="C20">
-        <v>0.07320722273964009</v>
+        <v>0.2341126413171963</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5973809743451568</v>
+        <v>2.095294305244252</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.9294756573561642</v>
+        <v>1.204182036709511</v>
       </c>
       <c r="H20">
-        <v>0.9103931772584417</v>
+        <v>0.7060886517544986</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.522789557856953</v>
+        <v>1.683319275127843</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5935119280463255</v>
+        <v>1.803235580569748</v>
       </c>
       <c r="C21">
-        <v>0.08135217943897999</v>
+        <v>0.2634820163081599</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6724756869732715</v>
+        <v>2.409746417360438</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.9509619397249196</v>
+        <v>1.326331971300988</v>
       </c>
       <c r="H21">
-        <v>0.9144720762744782</v>
+        <v>0.7513614802154507</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5842790096088777</v>
+        <v>1.912812461103414</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6311851705483775</v>
+        <v>1.947788882239308</v>
       </c>
       <c r="C22">
-        <v>0.08666007779198992</v>
+        <v>0.2830522041142132</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7217243137598643</v>
+        <v>2.622826937186872</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.9656152060644843</v>
+        <v>1.411336332519312</v>
       </c>
       <c r="H22">
-        <v>0.9175746398032345</v>
+        <v>0.783490285578722</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6245423083961725</v>
+        <v>2.065561138556859</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6110663680203743</v>
+        <v>1.870373014573914</v>
       </c>
       <c r="C23">
-        <v>0.08382853255230316</v>
+        <v>0.2725684699048685</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6954230906676457</v>
+        <v>2.508328145826354</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.9577381432309267</v>
+        <v>1.365453086271884</v>
       </c>
       <c r="H23">
-        <v>0.915878599012899</v>
+        <v>0.7660912927897243</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6030459687497967</v>
+        <v>1.98375496798792</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5351298392971557</v>
+        <v>1.582542231947969</v>
       </c>
       <c r="C24">
-        <v>0.07307383489960273</v>
+        <v>0.2336380338152537</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5961562898473147</v>
+        <v>2.090265539783843</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.9291346841264385</v>
+        <v>1.202264112470829</v>
       </c>
       <c r="H24">
-        <v>0.9103338432273631</v>
+        <v>0.7053876116471827</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5217858189849096</v>
+        <v>1.679608908275839</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4537709686093194</v>
+        <v>1.280938543928499</v>
       </c>
       <c r="C25">
-        <v>0.06140545293828836</v>
+        <v>0.1928673812635822</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4897342810580199</v>
+        <v>1.664651142721766</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.90085735671218</v>
+        <v>1.044709678874696</v>
       </c>
       <c r="H25">
-        <v>0.9062100200256111</v>
+        <v>0.6491255421962165</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.434454553461336</v>
+        <v>1.360820706796801</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.064228692900116</v>
+        <v>1.171203615856825</v>
       </c>
       <c r="C2">
-        <v>0.1635304024522526</v>
+        <v>0.1520748867452681</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.366439148719607</v>
+        <v>0.1592654235180682</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.9771874439369768</v>
       </c>
       <c r="G2">
-        <v>0.9410416076020027</v>
+        <v>0.2909773808521265</v>
       </c>
       <c r="H2">
-        <v>0.6140233697221191</v>
+        <v>0.004404643975884803</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00490626876179201</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2938776376214634</v>
       </c>
       <c r="K2">
-        <v>1.131606129497726</v>
+        <v>0.3477649064405277</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08144602189009476</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9317360884635377</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4671320868482951</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.179105918486101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9197475255177494</v>
+        <v>1.020594392157676</v>
       </c>
       <c r="C3">
-        <v>0.143921490667509</v>
+        <v>0.1494569711162868</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.171095476437472</v>
+        <v>0.1461928207664016</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>0.9298251401323725</v>
       </c>
       <c r="G3">
-        <v>0.8769847812405089</v>
+        <v>0.2918564948827793</v>
       </c>
       <c r="H3">
-        <v>0.5935022259068745</v>
+        <v>0.006178849511602691</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006420446486842923</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2984679212585135</v>
       </c>
       <c r="K3">
-        <v>0.9786595043006798</v>
+        <v>0.3536212868891049</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0737124887999947</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.818176336920402</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4138196092302024</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.190322571640863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8319360454081277</v>
+        <v>0.9278166480572168</v>
       </c>
       <c r="C4">
-        <v>0.1319729888710128</v>
+        <v>0.1478396943884377</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.053726320937415</v>
+        <v>0.1381555881696812</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.9013026650572229</v>
       </c>
       <c r="G4">
-        <v>0.8402791270312093</v>
+        <v>0.2927310432078301</v>
       </c>
       <c r="H4">
-        <v>0.5823184578535319</v>
+        <v>0.007466496491345037</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007530582415064657</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3015192911936992</v>
       </c>
       <c r="K4">
-        <v>0.8856317103085019</v>
+        <v>0.357465746145488</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06896319487452729</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7483847088653874</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3812026699649493</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.198400602051322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.796341756509662</v>
+        <v>0.8896225592836231</v>
       </c>
       <c r="C5">
-        <v>0.1271211499557694</v>
+        <v>0.1472295544163025</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.006443504422933</v>
+        <v>0.1348429451995337</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>0.8892487142173735</v>
       </c>
       <c r="G5">
-        <v>0.8259229377177064</v>
+        <v>0.2928709605944064</v>
       </c>
       <c r="H5">
-        <v>0.5780906329965347</v>
+        <v>0.008042115936561206</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.008107527132855896</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3026611293696888</v>
       </c>
       <c r="K5">
-        <v>0.8479040843393477</v>
+        <v>0.3588117107526987</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06709975930114709</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7202207420526463</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3682174869218642</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.201018867933556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7904417837380606</v>
+        <v>0.8828990195359268</v>
       </c>
       <c r="C6">
-        <v>0.1263163916809162</v>
+        <v>0.1471928783177567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.9986224424270773</v>
+        <v>0.1342507462978908</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>0.8865635630913431</v>
       </c>
       <c r="G6">
-        <v>0.823573819079769</v>
+        <v>0.2925354890450507</v>
       </c>
       <c r="H6">
-        <v>0.5774077815073184</v>
+        <v>0.008144003651025994</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.008311962172681042</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3026599946342188</v>
       </c>
       <c r="K6">
-        <v>0.8416493292615428</v>
+        <v>0.3586950090821244</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06687967338906731</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7159067852365837</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3664060630130592</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.200293366499395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8314552871847525</v>
+        <v>0.9262696415823655</v>
       </c>
       <c r="C7">
-        <v>0.1319074925207531</v>
+        <v>0.1480103060773672</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.053086563664678</v>
+        <v>0.1379964300198253</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.8992519527711451</v>
       </c>
       <c r="G7">
-        <v>0.8400831523032508</v>
+        <v>0.2917416996974396</v>
       </c>
       <c r="H7">
-        <v>0.5822601386521029</v>
+        <v>0.007482862144778557</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007811726710604816</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3010062154377522</v>
       </c>
       <c r="K7">
-        <v>0.8851222158425855</v>
+        <v>0.3565473573051516</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06918315038562639</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7490025899991224</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3819664947346553</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.195227096574982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.014201485151347</v>
+        <v>1.117953838957135</v>
       </c>
       <c r="C8">
-        <v>0.156746648792776</v>
+        <v>0.1514222558112195</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.29848682977736</v>
+        <v>0.1546085154353669</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>0.9582460585670773</v>
       </c>
       <c r="G8">
-        <v>0.9183731308113181</v>
+        <v>0.2899087778406937</v>
       </c>
       <c r="H8">
-        <v>0.6066370946978594</v>
+        <v>0.004982995074219509</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00571926940011469</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2947220138626534</v>
       </c>
       <c r="K8">
-        <v>1.078661956389055</v>
+        <v>0.348508181375081</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07910787165072719</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8939270777048023</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4499740270079684</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.178519772366428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.381562549799895</v>
+        <v>1.493461167880014</v>
       </c>
       <c r="C9">
-        <v>0.2064726714700527</v>
+        <v>0.1577260243515433</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.80526507693105</v>
+        <v>0.1873288560097777</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>1.082006674723033</v>
       </c>
       <c r="G9">
-        <v>1.095648026155132</v>
+        <v>0.2908686625985553</v>
       </c>
       <c r="H9">
-        <v>0.6669969556974706</v>
+        <v>0.001726998458201012</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002705426833387925</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.285233511677724</v>
       </c>
       <c r="K9">
-        <v>1.46719790403526</v>
+        <v>0.3364331637229441</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09815122807877685</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.175996669667825</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5827255243335685</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.161297921413507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.659849723766342</v>
+        <v>1.764439484791751</v>
       </c>
       <c r="C10">
-        <v>0.2440889305283349</v>
+        <v>0.1631514680493709</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.201389057284942</v>
+        <v>0.2056389954948088</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>1.158479389731951</v>
       </c>
       <c r="G10">
-        <v>1.244917512728307</v>
+        <v>0.2890469582457769</v>
       </c>
       <c r="H10">
-        <v>0.7210544891540849</v>
+        <v>0.0007035501530565647</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001671980529727612</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2772226016545716</v>
       </c>
       <c r="K10">
-        <v>1.761300901510793</v>
+        <v>0.325129971065536</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1148371430411004</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.386815752183594</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6645495828145442</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.141076970076099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.789018513790268</v>
+        <v>1.857100675897073</v>
       </c>
       <c r="C11">
-        <v>0.2615584243219757</v>
+        <v>0.1736429133413466</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.38895504478333</v>
+        <v>0.1676905952960439</v>
       </c>
       <c r="F11">
-        <v>2.451628164639217</v>
+        <v>1.048802839503225</v>
       </c>
       <c r="G11">
-        <v>1.318128580153683</v>
+        <v>0.2542100354706989</v>
       </c>
       <c r="H11">
-        <v>0.7482857795600921</v>
+        <v>0.01926978404357627</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001985969040097402</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2560568079863259</v>
       </c>
       <c r="K11">
-        <v>1.897789775128871</v>
+        <v>0.2918515306797325</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1474667877887015</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.510998064602347</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5614412637714565</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.023057101262978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.838373197011208</v>
+        <v>1.87912121410406</v>
       </c>
       <c r="C12">
-        <v>0.2682370099802824</v>
+        <v>0.1830599004448175</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.461258720559485</v>
+        <v>0.1361083277996897</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.9469720938532475</v>
       </c>
       <c r="G12">
-        <v>1.346728391050306</v>
+        <v>0.2281527182432868</v>
       </c>
       <c r="H12">
-        <v>0.7590285356922948</v>
+        <v>0.0580243099923976</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001953123957374459</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2412617037116789</v>
       </c>
       <c r="K12">
-        <v>1.949941350376918</v>
+        <v>0.2694999230762516</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1748151870655335</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.570781554445688</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4639679883183021</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.936882274008326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.827722923903224</v>
+        <v>1.846195641194157</v>
       </c>
       <c r="C13">
-        <v>0.2667956357068846</v>
+        <v>0.192320783453475</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.445626222259193</v>
+        <v>0.1075355043528319</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>0.842495212208199</v>
       </c>
       <c r="G13">
-        <v>1.340527965526462</v>
+        <v>0.2056627658274053</v>
       </c>
       <c r="H13">
-        <v>0.7566948381623604</v>
+        <v>0.1139438514842368</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002024272014156558</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2295947870581259</v>
       </c>
       <c r="K13">
-        <v>1.938687484821855</v>
+        <v>0.2526670614441304</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1997571968940051</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.585464909905113</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3672158131145551</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8647391971658323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.793069668829872</v>
+        <v>1.798015546781073</v>
       </c>
       <c r="C14">
-        <v>0.2621065335081454</v>
+        <v>0.1990403655824338</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.394876560000043</v>
+        <v>0.08959060425346621</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7688888512982999</v>
       </c>
       <c r="G14">
-        <v>1.320463236976025</v>
+        <v>0.1916192628447106</v>
       </c>
       <c r="H14">
-        <v>0.7491606394423229</v>
+        <v>0.1634548015007908</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002219949309373526</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2228503878535975</v>
       </c>
       <c r="K14">
-        <v>1.902070488649429</v>
+        <v>0.2435094192226099</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2165159784291433</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.575584964165159</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3017736678895204</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8207827260716414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.771903285133476</v>
+        <v>1.774265577737509</v>
       </c>
       <c r="C15">
-        <v>0.2592429435716639</v>
+        <v>0.2005745119567592</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.363964203074701</v>
+        <v>0.08534125679127058</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7494670325307098</v>
       </c>
       <c r="G15">
-        <v>1.308290760139244</v>
+        <v>0.1885227930357196</v>
       </c>
       <c r="H15">
-        <v>0.7446034732237479</v>
+        <v>0.1760438188299673</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00242072977393093</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2216586745450293</v>
       </c>
       <c r="K15">
-        <v>1.879704729115218</v>
+        <v>0.2420013724706678</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2197035444738873</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.56379095502939</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2853049506456955</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8116895287731367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.651465909662676</v>
+        <v>1.664165367666527</v>
       </c>
       <c r="C16">
-        <v>0.242955427929445</v>
+        <v>0.1960701096898845</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.189297214555808</v>
+        <v>0.08395502056356463</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.738200340741912</v>
       </c>
       <c r="G16">
-        <v>1.240249130976565</v>
+        <v>0.1930783199089809</v>
       </c>
       <c r="H16">
-        <v>0.7193322109808094</v>
+        <v>0.1637516969754245</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002954662494698113</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2269190394520137</v>
       </c>
       <c r="K16">
-        <v>1.75244179004028</v>
+        <v>0.2494522305225502</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2067562483628222</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.469578898274563</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2729092038185286</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8321899412058755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.578288585165353</v>
+        <v>1.605378582730651</v>
       </c>
       <c r="C17">
-        <v>0.2330630637238045</v>
+        <v>0.1889624271902903</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.084175630374389</v>
+        <v>0.09191923799841817</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.7680170970773688</v>
       </c>
       <c r="G17">
-        <v>1.199943078859377</v>
+        <v>0.2039328371698019</v>
       </c>
       <c r="H17">
-        <v>0.7045396747102188</v>
+        <v>0.1262417786762171</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003297775431026828</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.234527095256702</v>
       </c>
       <c r="K17">
-        <v>1.675113878014486</v>
+        <v>0.2599029080214894</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1877856023286668</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.402849910004107</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2970057305401212</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8710333442935578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.536436490336939</v>
+        <v>1.584594676290749</v>
       </c>
       <c r="C18">
-        <v>0.2274061004562498</v>
+        <v>0.1793268807882811</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.024391074478942</v>
+        <v>0.1110555355899692</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>0.8402215951281775</v>
       </c>
       <c r="G18">
-        <v>1.177252086659195</v>
+        <v>0.2228224061955828</v>
       </c>
       <c r="H18">
-        <v>0.6962764749333701</v>
+        <v>0.0734614422183455</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00315722562760623</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2456691933557664</v>
       </c>
       <c r="K18">
-        <v>1.630885801357834</v>
+        <v>0.2756298894059093</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1627853228301532</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.351517247395606</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3592150444645483</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9343657517173938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.522304875961765</v>
+        <v>1.593622723425199</v>
       </c>
       <c r="C19">
-        <v>0.2254960610526666</v>
+        <v>0.1705850438646834</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.004259528816704</v>
+        <v>0.1410089091348183</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>0.9426623255928916</v>
       </c>
       <c r="G19">
-        <v>1.169650598404047</v>
+        <v>0.24676761856486</v>
       </c>
       <c r="H19">
-        <v>0.6935193383458795</v>
+        <v>0.02796977663929567</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003183811045290419</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2586752156939411</v>
       </c>
       <c r="K19">
-        <v>1.615951473623937</v>
+        <v>0.2949176831786282</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1377780072953314</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.318740419059083</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4562522517812795</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.012366111967722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.586053363757287</v>
+        <v>1.689902020046731</v>
       </c>
       <c r="C20">
-        <v>0.2341126413171963</v>
+        <v>0.1624389839185696</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.095294305244252</v>
+        <v>0.2002431712300279</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.131667859328587</v>
       </c>
       <c r="G20">
-        <v>1.204182036709511</v>
+        <v>0.2862419582054585</v>
       </c>
       <c r="H20">
-        <v>0.7060886517544986</v>
+        <v>0.0008891120415670528</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002700002882307651</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2775883734492126</v>
       </c>
       <c r="K20">
-        <v>1.683319275127843</v>
+        <v>0.3250960462471006</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1113562492340492</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.334785565369913</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6452669590344584</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.135787899471694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803235580569748</v>
+        <v>1.903237850965894</v>
       </c>
       <c r="C21">
-        <v>0.2634820163081599</v>
+        <v>0.1654398812701672</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.409746417360438</v>
+        <v>0.2231440986826811</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.218729659445643</v>
       </c>
       <c r="G21">
-        <v>1.326331971300988</v>
+        <v>0.2923023707380707</v>
       </c>
       <c r="H21">
-        <v>0.7513614802154507</v>
+        <v>0.0001412062484476007</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002045838569510572</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2753655254065563</v>
       </c>
       <c r="K21">
-        <v>1.912812461103414</v>
+        <v>0.3226452053300761</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.120154459284997</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.491448210456213</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7341680535980686</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.144296919509799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.947788882239308</v>
+        <v>2.04228917195195</v>
       </c>
       <c r="C22">
-        <v>0.2830522041142132</v>
+        <v>0.1674855457573337</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.622826937186872</v>
+        <v>0.2353864970143604</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>1.270238817562657</v>
       </c>
       <c r="G22">
-        <v>1.411336332519312</v>
+        <v>0.2959008337366811</v>
       </c>
       <c r="H22">
-        <v>0.783490285578722</v>
+        <v>5.173747566811215E-06</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001523683162346856</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.273775347939079</v>
       </c>
       <c r="K22">
-        <v>2.065561138556859</v>
+        <v>0.3207759455822341</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1268748454711783</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.594118411125294</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7825607225653073</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.148795197236439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.870373014573914</v>
+        <v>1.969350938867024</v>
       </c>
       <c r="C23">
-        <v>0.2725684699048685</v>
+        <v>0.1661311837206867</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.508328145826354</v>
+        <v>0.2289861149169425</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>1.244878068028441</v>
       </c>
       <c r="G23">
-        <v>1.365453086271884</v>
+        <v>0.2950648362368398</v>
       </c>
       <c r="H23">
-        <v>0.7660912927897243</v>
+        <v>5.384836831856532E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001468142077560408</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2751874338704638</v>
       </c>
       <c r="K23">
-        <v>1.98375496798792</v>
+        <v>0.3227902628330916</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1229812881954686</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.538082327296024</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7555750874445835</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.149874101322283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.582542231947969</v>
+        <v>1.690913813173154</v>
       </c>
       <c r="C24">
-        <v>0.2336380338152537</v>
+        <v>0.1614452965968489</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.090265539783843</v>
+        <v>0.204561675308554</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.146914845514829</v>
       </c>
       <c r="G24">
-        <v>1.202264112470829</v>
+        <v>0.2910123449469992</v>
       </c>
       <c r="H24">
-        <v>0.7053876116471827</v>
+        <v>0.0007306293347206783</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002180605873967956</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2801483381371241</v>
       </c>
       <c r="K24">
-        <v>1.679608908275839</v>
+        <v>0.3293761772318753</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1087623009231251</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.328023170373683</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6556042897354217</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.151259772496786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.280938543928499</v>
+        <v>1.390182671452692</v>
       </c>
       <c r="C25">
-        <v>0.1928673812635822</v>
+        <v>0.1563876071490498</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.664651142721766</v>
+        <v>0.1782732138859942</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.044589471964272</v>
       </c>
       <c r="G25">
-        <v>1.044709678874696</v>
+        <v>0.288534249271116</v>
       </c>
       <c r="H25">
-        <v>0.6491255421962165</v>
+        <v>0.002425886362444007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003809717772342402</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2866638716637837</v>
       </c>
       <c r="K25">
-        <v>1.360820706796801</v>
+        <v>0.3378312522630935</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09344857350825464</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.101540499088173</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5483965877775745</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.159183137353665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.171203615856825</v>
+        <v>1.161947896057626</v>
       </c>
       <c r="C2">
-        <v>0.1520748867452681</v>
+        <v>0.1357795014842544</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1592654235180682</v>
+        <v>0.1576717623720043</v>
       </c>
       <c r="F2">
-        <v>0.9771874439369768</v>
+        <v>0.9417502020328854</v>
       </c>
       <c r="G2">
-        <v>0.2909773808521265</v>
+        <v>0.2543033845003819</v>
       </c>
       <c r="H2">
-        <v>0.004404643975884803</v>
+        <v>0.003614292747788073</v>
       </c>
       <c r="I2">
-        <v>0.00490626876179201</v>
+        <v>0.003634816654805917</v>
       </c>
       <c r="J2">
-        <v>0.2938776376214634</v>
+        <v>0.3041625674566788</v>
       </c>
       <c r="K2">
-        <v>0.3477649064405277</v>
+        <v>0.318362035916202</v>
       </c>
       <c r="L2">
-        <v>0.08144602189009476</v>
+        <v>0.1511403707756447</v>
       </c>
       <c r="M2">
-        <v>0.9317360884635377</v>
+        <v>0.09216414478751744</v>
       </c>
       <c r="N2">
-        <v>0.4671320868482951</v>
+        <v>0.08283515478480297</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9475104426760765</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4863693234940172</v>
       </c>
       <c r="Q2">
-        <v>1.179105918486101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.100902691175961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.020594392157676</v>
+        <v>1.014493897469919</v>
       </c>
       <c r="C3">
-        <v>0.1494569711162868</v>
+        <v>0.1316931691545662</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1461928207664016</v>
+        <v>0.1450091836093605</v>
       </c>
       <c r="F3">
-        <v>0.9298251401323725</v>
+        <v>0.8987873431824411</v>
       </c>
       <c r="G3">
-        <v>0.2918564948827793</v>
+        <v>0.2577179422564626</v>
       </c>
       <c r="H3">
-        <v>0.006178849511602691</v>
+        <v>0.005146846945595807</v>
       </c>
       <c r="I3">
-        <v>0.006420446486842923</v>
+        <v>0.004764283349700804</v>
       </c>
       <c r="J3">
-        <v>0.2984679212585135</v>
+        <v>0.3071741780807855</v>
       </c>
       <c r="K3">
-        <v>0.3536212868891049</v>
+        <v>0.3251559930289449</v>
       </c>
       <c r="L3">
-        <v>0.0737124887999947</v>
+        <v>0.1564174305588271</v>
       </c>
       <c r="M3">
-        <v>0.818176336920402</v>
+        <v>0.09354171188883331</v>
       </c>
       <c r="N3">
-        <v>0.4138196092302024</v>
+        <v>0.07418990555022376</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8307900748294514</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.4304983127431683</v>
       </c>
       <c r="Q3">
-        <v>1.190322571640863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.116602843418562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9278166480572168</v>
+        <v>0.92356153222633</v>
       </c>
       <c r="C4">
-        <v>0.1478396943884377</v>
+        <v>0.1292089625606216</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1381555881696812</v>
+        <v>0.1372192804864625</v>
       </c>
       <c r="F4">
-        <v>0.9013026650572229</v>
+        <v>0.8728473578807865</v>
       </c>
       <c r="G4">
-        <v>0.2927310432078301</v>
+        <v>0.2601568693522083</v>
       </c>
       <c r="H4">
-        <v>0.007466496491345037</v>
+        <v>0.006265421286764883</v>
       </c>
       <c r="I4">
-        <v>0.007530582415064657</v>
+        <v>0.005612615942228061</v>
       </c>
       <c r="J4">
-        <v>0.3015192911936992</v>
+        <v>0.3091218037786376</v>
       </c>
       <c r="K4">
-        <v>0.357465746145488</v>
+        <v>0.3295147824380926</v>
       </c>
       <c r="L4">
-        <v>0.06896319487452729</v>
+        <v>0.1598121203333864</v>
       </c>
       <c r="M4">
-        <v>0.7483847088653874</v>
+        <v>0.09487965863393377</v>
       </c>
       <c r="N4">
-        <v>0.3812026699649493</v>
+        <v>0.06890172440767373</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7591024972456779</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.396371792749008</v>
       </c>
       <c r="Q4">
-        <v>1.198400602051322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.127203578813408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8896225592836231</v>
+        <v>0.886100758881696</v>
       </c>
       <c r="C5">
-        <v>0.1472295544163025</v>
+        <v>0.1282721915981284</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1348429451995337</v>
+        <v>0.1340070475614574</v>
       </c>
       <c r="F5">
-        <v>0.8892487142173735</v>
+        <v>0.8618308784868844</v>
       </c>
       <c r="G5">
-        <v>0.2928709605944064</v>
+        <v>0.2609549861072011</v>
       </c>
       <c r="H5">
-        <v>0.008042115936561206</v>
+        <v>0.006766843086565832</v>
       </c>
       <c r="I5">
-        <v>0.008107527132855896</v>
+        <v>0.006088714817768626</v>
       </c>
       <c r="J5">
-        <v>0.3026611293696888</v>
+        <v>0.3097807468079665</v>
       </c>
       <c r="K5">
-        <v>0.3588117107526987</v>
+        <v>0.3310741364910328</v>
       </c>
       <c r="L5">
-        <v>0.06709975930114709</v>
+        <v>0.1610920983806317</v>
       </c>
       <c r="M5">
-        <v>0.7202207420526463</v>
+        <v>0.09549233690016301</v>
       </c>
       <c r="N5">
-        <v>0.3682174869218642</v>
+        <v>0.06682568213864215</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.73017672595536</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3827869283264818</v>
       </c>
       <c r="Q5">
-        <v>1.201018867933556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.130839087574458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8828990195359268</v>
+        <v>0.8795021101914529</v>
       </c>
       <c r="C6">
-        <v>0.1471928783177567</v>
+        <v>0.1282042258463107</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1342507462978908</v>
+        <v>0.1334322732779611</v>
       </c>
       <c r="F6">
-        <v>0.8865635630913431</v>
+        <v>0.8593339887024456</v>
       </c>
       <c r="G6">
-        <v>0.2925354890450507</v>
+        <v>0.2607526254009755</v>
       </c>
       <c r="H6">
-        <v>0.008144003651025994</v>
+        <v>0.0068557671146246</v>
       </c>
       <c r="I6">
-        <v>0.008311962172681042</v>
+        <v>0.006292263897712758</v>
       </c>
       <c r="J6">
-        <v>0.3026599946342188</v>
+        <v>0.309697403342426</v>
       </c>
       <c r="K6">
-        <v>0.3586950090821244</v>
+        <v>0.3310154173730595</v>
       </c>
       <c r="L6">
-        <v>0.06687967338906731</v>
+        <v>0.1611341717681594</v>
       </c>
       <c r="M6">
-        <v>0.7159067852365837</v>
+        <v>0.09553292592128049</v>
       </c>
       <c r="N6">
-        <v>0.3664060630130592</v>
+        <v>0.06657282224253791</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7257357636707695</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3808768392948423</v>
       </c>
       <c r="Q6">
-        <v>1.200293366499395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.130335924462713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9262696415823655</v>
+        <v>0.9222253359941988</v>
       </c>
       <c r="C7">
-        <v>0.1480103060773672</v>
+        <v>0.1293525664814084</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1379964300198253</v>
+        <v>0.1371847064831897</v>
       </c>
       <c r="F7">
-        <v>0.8992519527711451</v>
+        <v>0.8700682534230282</v>
       </c>
       <c r="G7">
-        <v>0.2917416996974396</v>
+        <v>0.2608644249498937</v>
       </c>
       <c r="H7">
-        <v>0.007482862144778557</v>
+        <v>0.006283663233468184</v>
       </c>
       <c r="I7">
-        <v>0.007811726710604816</v>
+        <v>0.005939226565902622</v>
       </c>
       <c r="J7">
-        <v>0.3010062154377522</v>
+        <v>0.3059712039000004</v>
       </c>
       <c r="K7">
-        <v>0.3565473573051516</v>
+        <v>0.3283275778778965</v>
       </c>
       <c r="L7">
-        <v>0.06918315038562639</v>
+        <v>0.1591967732607849</v>
       </c>
       <c r="M7">
-        <v>0.7490025899991224</v>
+        <v>0.0946096195972439</v>
       </c>
       <c r="N7">
-        <v>0.3819664947346553</v>
+        <v>0.06923568288142334</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7594621918502042</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3973418768686372</v>
       </c>
       <c r="Q7">
-        <v>1.195227096574982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.122395234322724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.117953838957135</v>
+        <v>1.110453504531876</v>
       </c>
       <c r="C8">
-        <v>0.1514222558112195</v>
+        <v>0.1344196485293878</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1546085154353669</v>
+        <v>0.1535668237779575</v>
       </c>
       <c r="F8">
-        <v>0.9582460585670773</v>
+        <v>0.9218059638731262</v>
       </c>
       <c r="G8">
-        <v>0.2899087778406937</v>
+        <v>0.2596278812635475</v>
       </c>
       <c r="H8">
-        <v>0.004982995074219509</v>
+        <v>0.004122017649403897</v>
       </c>
       <c r="I8">
-        <v>0.00571926940011469</v>
+        <v>0.004385747857823752</v>
       </c>
       <c r="J8">
-        <v>0.2947220138626534</v>
+        <v>0.2960742870095245</v>
       </c>
       <c r="K8">
-        <v>0.348508181375081</v>
+        <v>0.31845075066974</v>
       </c>
       <c r="L8">
-        <v>0.07910787165072719</v>
+        <v>0.1518828980973765</v>
       </c>
       <c r="M8">
-        <v>0.8939270777048023</v>
+        <v>0.09191268376207873</v>
       </c>
       <c r="N8">
-        <v>0.4499740270079684</v>
+        <v>0.08056415125353311</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9077826864242127</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4690370178708321</v>
       </c>
       <c r="Q8">
-        <v>1.178519772366428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.096246078679172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.493461167880014</v>
+        <v>1.477702039293348</v>
       </c>
       <c r="C9">
-        <v>0.1577260243515433</v>
+        <v>0.1444305947792941</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1873288560097777</v>
+        <v>0.1853525666135987</v>
       </c>
       <c r="F9">
-        <v>1.082006674723033</v>
+        <v>1.033144752952424</v>
       </c>
       <c r="G9">
-        <v>0.2908686625985553</v>
+        <v>0.255723295928</v>
       </c>
       <c r="H9">
-        <v>0.001726998458201012</v>
+        <v>0.001343338789037474</v>
       </c>
       <c r="I9">
-        <v>0.002705426833387925</v>
+        <v>0.002126755461472563</v>
       </c>
       <c r="J9">
-        <v>0.285233511677724</v>
+        <v>0.2875509257904554</v>
       </c>
       <c r="K9">
-        <v>0.3364331637229441</v>
+        <v>0.3033598789390801</v>
       </c>
       <c r="L9">
-        <v>0.09815122807877685</v>
+        <v>0.1401128928066839</v>
       </c>
       <c r="M9">
-        <v>1.175996669667825</v>
+        <v>0.09127313715087659</v>
       </c>
       <c r="N9">
-        <v>0.5827255243335685</v>
+        <v>0.1021102523952919</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.19772855590918</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.6087176623968702</v>
       </c>
       <c r="Q9">
-        <v>1.161297921413507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.064846868531106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.764439484791751</v>
+        <v>1.74366293589091</v>
       </c>
       <c r="C10">
-        <v>0.1631514680493709</v>
+        <v>0.15245267222857</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2056389954948088</v>
+        <v>0.2037495074863784</v>
       </c>
       <c r="F10">
-        <v>1.158479389731951</v>
+        <v>1.096554447317331</v>
       </c>
       <c r="G10">
-        <v>0.2890469582457769</v>
+        <v>0.2607677281851082</v>
       </c>
       <c r="H10">
-        <v>0.0007035501530565647</v>
+        <v>0.0005457023548345319</v>
       </c>
       <c r="I10">
-        <v>0.001671980529727612</v>
+        <v>0.001521515773840854</v>
       </c>
       <c r="J10">
-        <v>0.2772226016545716</v>
+        <v>0.2669020648274767</v>
       </c>
       <c r="K10">
-        <v>0.325129971065536</v>
+        <v>0.2885059075773064</v>
       </c>
       <c r="L10">
-        <v>0.1148371430411004</v>
+        <v>0.130558837994224</v>
       </c>
       <c r="M10">
-        <v>1.386815752183594</v>
+        <v>0.09128142005265794</v>
       </c>
       <c r="N10">
-        <v>0.6645495828145442</v>
+        <v>0.1215085275179959</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.41265371585547</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.696450542261033</v>
       </c>
       <c r="Q10">
-        <v>1.141076970076099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.025360972129931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.857100675897073</v>
+        <v>1.839875183292833</v>
       </c>
       <c r="C11">
-        <v>0.1736429133413466</v>
+        <v>0.1643017568954335</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1676905952960439</v>
+        <v>0.1674060659205523</v>
       </c>
       <c r="F11">
-        <v>1.048802839503225</v>
+        <v>0.9842516295691013</v>
       </c>
       <c r="G11">
-        <v>0.2542100354706989</v>
+        <v>0.2492275523637275</v>
       </c>
       <c r="H11">
-        <v>0.01926978404357627</v>
+        <v>0.01912958007623899</v>
       </c>
       <c r="I11">
-        <v>0.001985969040097402</v>
+        <v>0.002036138353367356</v>
       </c>
       <c r="J11">
-        <v>0.2560568079863259</v>
+        <v>0.2302315762223515</v>
       </c>
       <c r="K11">
-        <v>0.2918515306797325</v>
+        <v>0.257334349910602</v>
       </c>
       <c r="L11">
-        <v>0.1474667877887015</v>
+        <v>0.1183618000536786</v>
       </c>
       <c r="M11">
-        <v>1.510998064602347</v>
+        <v>0.0811599935111591</v>
       </c>
       <c r="N11">
-        <v>0.5614412637714565</v>
+        <v>0.1573928473876762</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.532725307171745</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.5915624253710519</v>
       </c>
       <c r="Q11">
-        <v>1.023057101262978</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9029941058056465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.87912121410406</v>
+        <v>1.865375194170952</v>
       </c>
       <c r="C12">
-        <v>0.1830599004448175</v>
+        <v>0.1738954682817067</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1361083277996897</v>
+        <v>0.136464536106697</v>
       </c>
       <c r="F12">
-        <v>0.9469720938532475</v>
+        <v>0.8858963322544469</v>
       </c>
       <c r="G12">
-        <v>0.2281527182432868</v>
+        <v>0.2335289496051445</v>
       </c>
       <c r="H12">
-        <v>0.0580243099923976</v>
+        <v>0.05787693029046892</v>
       </c>
       <c r="I12">
-        <v>0.001953123957374459</v>
+        <v>0.002018551835075044</v>
       </c>
       <c r="J12">
-        <v>0.2412617037116789</v>
+        <v>0.2158473089208037</v>
       </c>
       <c r="K12">
-        <v>0.2694999230762516</v>
+        <v>0.2385019779584514</v>
       </c>
       <c r="L12">
-        <v>0.1748151870655335</v>
+        <v>0.1118946862452175</v>
       </c>
       <c r="M12">
-        <v>1.570781554445688</v>
+        <v>0.07391537621807309</v>
       </c>
       <c r="N12">
-        <v>0.4639679883183021</v>
+        <v>0.1864606415213643</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.588827690900615</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4905873120148385</v>
       </c>
       <c r="Q12">
-        <v>0.936882274008326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8237889690287261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.846195641194157</v>
+        <v>1.835548415039142</v>
       </c>
       <c r="C13">
-        <v>0.192320783453475</v>
+        <v>0.1830473299688791</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1075355043528319</v>
+        <v>0.1077902500795673</v>
       </c>
       <c r="F13">
-        <v>0.842495212208199</v>
+        <v>0.7908015564258335</v>
       </c>
       <c r="G13">
-        <v>0.2056627658274053</v>
+        <v>0.2089661664223001</v>
       </c>
       <c r="H13">
-        <v>0.1139438514842368</v>
+        <v>0.1137643921997693</v>
       </c>
       <c r="I13">
-        <v>0.002024272014156558</v>
+        <v>0.002040684314490449</v>
       </c>
       <c r="J13">
-        <v>0.2295947870581259</v>
+        <v>0.2127494240333281</v>
       </c>
       <c r="K13">
-        <v>0.2526670614441304</v>
+        <v>0.2265705049959497</v>
       </c>
       <c r="L13">
-        <v>0.1997571968940051</v>
+        <v>0.1083069117286852</v>
       </c>
       <c r="M13">
-        <v>1.585464909905113</v>
+        <v>0.06833408647397476</v>
       </c>
       <c r="N13">
-        <v>0.3672158131145551</v>
+        <v>0.2112621706095297</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.600695418943559</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3887366814210651</v>
       </c>
       <c r="Q13">
-        <v>0.8647391971658323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7692098154450449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.798015546781073</v>
+        <v>1.789372414016583</v>
       </c>
       <c r="C14">
-        <v>0.1990403655824338</v>
+        <v>0.1895990957117704</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08959060425346621</v>
+        <v>0.08956860468819272</v>
       </c>
       <c r="F14">
-        <v>0.7688888512982999</v>
+        <v>0.7257857369025231</v>
       </c>
       <c r="G14">
-        <v>0.1916192628447106</v>
+        <v>0.1891368160525531</v>
       </c>
       <c r="H14">
-        <v>0.1634548015007908</v>
+        <v>0.1632392841816142</v>
       </c>
       <c r="I14">
-        <v>0.002219949309373526</v>
+        <v>0.002184668032031212</v>
       </c>
       <c r="J14">
-        <v>0.2228503878535975</v>
+        <v>0.2139714793936633</v>
       </c>
       <c r="K14">
-        <v>0.2435094192226099</v>
+        <v>0.2210710881228337</v>
       </c>
       <c r="L14">
-        <v>0.2165159784291433</v>
+        <v>0.1068258207609012</v>
       </c>
       <c r="M14">
-        <v>1.575584964165159</v>
+        <v>0.06525733827266755</v>
       </c>
       <c r="N14">
-        <v>0.3017736678895204</v>
+        <v>0.2269093893290233</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.589218553201249</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3193225184705</v>
       </c>
       <c r="Q14">
-        <v>0.8207827260716414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7407955405566611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.774265577737509</v>
+        <v>1.766055464034139</v>
       </c>
       <c r="C15">
-        <v>0.2005745119567592</v>
+        <v>0.1911298192084416</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08534125679127058</v>
+        <v>0.08518640289244317</v>
       </c>
       <c r="F15">
-        <v>0.7494670325307098</v>
+        <v>0.7093986449236098</v>
       </c>
       <c r="G15">
-        <v>0.1885227930357196</v>
+        <v>0.182987767954117</v>
       </c>
       <c r="H15">
-        <v>0.1760438188299673</v>
+        <v>0.1758101005290911</v>
       </c>
       <c r="I15">
-        <v>0.00242072977393093</v>
+        <v>0.002378485205546177</v>
       </c>
       <c r="J15">
-        <v>0.2216586745450293</v>
+        <v>0.2157467312077781</v>
       </c>
       <c r="K15">
-        <v>0.2420013724706678</v>
+        <v>0.220622416718971</v>
       </c>
       <c r="L15">
-        <v>0.2197035444738873</v>
+        <v>0.106779475604462</v>
       </c>
       <c r="M15">
-        <v>1.56379095502939</v>
+        <v>0.06473488263774563</v>
       </c>
       <c r="N15">
-        <v>0.2853049506456955</v>
+        <v>0.229420064126316</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.577204090622388</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3016568000812043</v>
       </c>
       <c r="Q15">
-        <v>0.8116895287731367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7370367037517553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.664165367666527</v>
+        <v>1.65565529673583</v>
       </c>
       <c r="C16">
-        <v>0.1960701096898845</v>
+        <v>0.1868083325060468</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08395502056356463</v>
+        <v>0.08322598745212062</v>
       </c>
       <c r="F16">
-        <v>0.738200340741912</v>
+        <v>0.7064711623748892</v>
       </c>
       <c r="G16">
-        <v>0.1930783199089809</v>
+        <v>0.1741624829747757</v>
       </c>
       <c r="H16">
-        <v>0.1637516969754245</v>
+        <v>0.1634153220891221</v>
       </c>
       <c r="I16">
-        <v>0.002954662494698113</v>
+        <v>0.002771985455728654</v>
       </c>
       <c r="J16">
-        <v>0.2269190394520137</v>
+        <v>0.2322294726089531</v>
       </c>
       <c r="K16">
-        <v>0.2494522305225502</v>
+        <v>0.2296321348075399</v>
       </c>
       <c r="L16">
-        <v>0.2067562483628222</v>
+        <v>0.1101234888171643</v>
       </c>
       <c r="M16">
-        <v>1.469578898274563</v>
+        <v>0.06705424542954219</v>
       </c>
       <c r="N16">
-        <v>0.2729092038185286</v>
+        <v>0.2132981554832014</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.484272135759483</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2868996986824044</v>
       </c>
       <c r="Q16">
-        <v>0.8321899412058755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7710867683242952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.605378582730651</v>
+        <v>1.595895719716623</v>
       </c>
       <c r="C17">
-        <v>0.1889624271902903</v>
+        <v>0.1796455190880266</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09191923799841817</v>
+        <v>0.09087490893058714</v>
       </c>
       <c r="F17">
-        <v>0.7680170970773688</v>
+        <v>0.7377608200913173</v>
       </c>
       <c r="G17">
-        <v>0.2039328371698019</v>
+        <v>0.1788483967806869</v>
       </c>
       <c r="H17">
-        <v>0.1262417786762171</v>
+        <v>0.12584340735674</v>
       </c>
       <c r="I17">
-        <v>0.003297775431026828</v>
+        <v>0.00303540721321216</v>
       </c>
       <c r="J17">
-        <v>0.234527095256702</v>
+        <v>0.2451816494053816</v>
       </c>
       <c r="K17">
-        <v>0.2599029080214894</v>
+        <v>0.2395033834928686</v>
       </c>
       <c r="L17">
-        <v>0.1877856023286668</v>
+        <v>0.1138394627151529</v>
       </c>
       <c r="M17">
-        <v>1.402849910004107</v>
+        <v>0.07023186447106422</v>
       </c>
       <c r="N17">
-        <v>0.2970057305401212</v>
+        <v>0.1930299486039999</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.418923557006167</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3112393508274209</v>
       </c>
       <c r="Q17">
-        <v>0.8710333442935578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8118061387815914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.584594676290749</v>
+        <v>1.573032926651052</v>
       </c>
       <c r="C18">
-        <v>0.1793268807882811</v>
+        <v>0.1697995521556024</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1110555355899692</v>
+        <v>0.1096673511597608</v>
       </c>
       <c r="F18">
-        <v>0.8402215951281775</v>
+        <v>0.8069393146054793</v>
       </c>
       <c r="G18">
-        <v>0.2228224061955828</v>
+        <v>0.1931693877955212</v>
       </c>
       <c r="H18">
-        <v>0.0734614422183455</v>
+        <v>0.07304830937513174</v>
       </c>
       <c r="I18">
-        <v>0.00315722562760623</v>
+        <v>0.00282081807138379</v>
       </c>
       <c r="J18">
-        <v>0.2456691933557664</v>
+        <v>0.2578996468093031</v>
       </c>
       <c r="K18">
-        <v>0.2756298894059093</v>
+        <v>0.2529320506269439</v>
       </c>
       <c r="L18">
-        <v>0.1627853228301532</v>
+        <v>0.118965480796362</v>
       </c>
       <c r="M18">
-        <v>1.351517247395606</v>
+        <v>0.07498449516935324</v>
       </c>
       <c r="N18">
-        <v>0.3592150444645483</v>
+        <v>0.1676473845269868</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.369748544991552</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3757379418437949</v>
       </c>
       <c r="Q18">
-        <v>0.9343657517173938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.869429945660471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.593622723425199</v>
+        <v>1.579112662292459</v>
       </c>
       <c r="C19">
-        <v>0.1705850438646834</v>
+        <v>0.1606817183080693</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1410089091348183</v>
+        <v>0.1391872562829413</v>
       </c>
       <c r="F19">
-        <v>0.9426623255928916</v>
+        <v>0.9031500205566232</v>
       </c>
       <c r="G19">
-        <v>0.24676761856486</v>
+        <v>0.2129057910090353</v>
       </c>
       <c r="H19">
-        <v>0.02796977663929567</v>
+        <v>0.02759518926261961</v>
       </c>
       <c r="I19">
-        <v>0.003183811045290419</v>
+        <v>0.002898762616924344</v>
       </c>
       <c r="J19">
-        <v>0.2586752156939411</v>
+        <v>0.2700437147305976</v>
       </c>
       <c r="K19">
-        <v>0.2949176831786282</v>
+        <v>0.2686227265843826</v>
       </c>
       <c r="L19">
-        <v>0.1377780072953314</v>
+        <v>0.1249389893407127</v>
       </c>
       <c r="M19">
-        <v>1.318740419059083</v>
+        <v>0.08079957981220431</v>
       </c>
       <c r="N19">
-        <v>0.4562522517812795</v>
+        <v>0.1426481409882996</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.339746417878246</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4767714672946397</v>
       </c>
       <c r="Q19">
-        <v>1.012366111967722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.936490178814509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.689902020046731</v>
+        <v>1.669865733929839</v>
       </c>
       <c r="C20">
-        <v>0.1624389839185696</v>
+        <v>0.1516896716833998</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2002431712300279</v>
+        <v>0.1978964263520879</v>
       </c>
       <c r="F20">
-        <v>1.131667859328587</v>
+        <v>1.076283429432138</v>
       </c>
       <c r="G20">
-        <v>0.2862419582054585</v>
+        <v>0.250353412019912</v>
       </c>
       <c r="H20">
-        <v>0.0008891120415670528</v>
+        <v>0.000675964135308682</v>
       </c>
       <c r="I20">
-        <v>0.002700002882307651</v>
+        <v>0.00259959348081118</v>
       </c>
       <c r="J20">
-        <v>0.2775883734492126</v>
+        <v>0.2787983196078443</v>
       </c>
       <c r="K20">
-        <v>0.3250960462471006</v>
+        <v>0.2908853773082036</v>
       </c>
       <c r="L20">
-        <v>0.1113562492340492</v>
+        <v>0.132449292833396</v>
       </c>
       <c r="M20">
-        <v>1.334785565369913</v>
+        <v>0.09058805379154222</v>
       </c>
       <c r="N20">
-        <v>0.6452669590344584</v>
+        <v>0.1169135069520451</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.360427960338143</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.6748070072776216</v>
       </c>
       <c r="Q20">
-        <v>1.135787899471694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.032247058273754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.903237850965894</v>
+        <v>1.882168582743759</v>
       </c>
       <c r="C21">
-        <v>0.1654398812701672</v>
+        <v>0.1547006427632525</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2231440986826811</v>
+        <v>0.2231956300313414</v>
       </c>
       <c r="F21">
-        <v>1.218729659445643</v>
+        <v>1.136346945566956</v>
       </c>
       <c r="G21">
-        <v>0.2923023707380707</v>
+        <v>0.2949796576888915</v>
       </c>
       <c r="H21">
-        <v>0.0001412062484476007</v>
+        <v>7.946396197344718E-05</v>
       </c>
       <c r="I21">
-        <v>0.002045838569510572</v>
+        <v>0.002212076381629124</v>
       </c>
       <c r="J21">
-        <v>0.2753655254065563</v>
+        <v>0.2321346626122036</v>
       </c>
       <c r="K21">
-        <v>0.3226452053300761</v>
+        <v>0.2787741089203557</v>
       </c>
       <c r="L21">
-        <v>0.120154459284997</v>
+        <v>0.125292747443412</v>
       </c>
       <c r="M21">
-        <v>1.491448210456213</v>
+        <v>0.0906548596246779</v>
       </c>
       <c r="N21">
-        <v>0.7341680535980686</v>
+        <v>0.1300587338686867</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.516079527204852</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.7737829419463651</v>
       </c>
       <c r="Q21">
-        <v>1.144296919509799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9902168206808568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.04228917195195</v>
+        <v>2.021029523393622</v>
       </c>
       <c r="C22">
-        <v>0.1674855457573337</v>
+        <v>0.1566850331429777</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2353864970143604</v>
+        <v>0.237325821674915</v>
       </c>
       <c r="F22">
-        <v>1.270238817562657</v>
+        <v>1.169175319290403</v>
       </c>
       <c r="G22">
-        <v>0.2959008337366811</v>
+        <v>0.3305456189383378</v>
       </c>
       <c r="H22">
-        <v>5.173747566811215E-06</v>
+        <v>1.844017827323796E-09</v>
       </c>
       <c r="I22">
-        <v>0.001523683162346856</v>
+        <v>0.001746868723120798</v>
       </c>
       <c r="J22">
-        <v>0.273775347939079</v>
+        <v>0.2099871944977334</v>
       </c>
       <c r="K22">
-        <v>0.3207759455822341</v>
+        <v>0.2703108457256889</v>
       </c>
       <c r="L22">
-        <v>0.1268748454711783</v>
+        <v>0.1206727825120826</v>
       </c>
       <c r="M22">
-        <v>1.594118411125294</v>
+        <v>0.09066283772866868</v>
       </c>
       <c r="N22">
-        <v>0.7825607225653073</v>
+        <v>0.1399127724711562</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.617476123128483</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.8288826438992771</v>
       </c>
       <c r="Q22">
-        <v>1.148795197236439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9597098955743348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.969350938867024</v>
+        <v>1.947645672086537</v>
       </c>
       <c r="C23">
-        <v>0.1661311837206867</v>
+        <v>0.1554801272912982</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2289861149169425</v>
+        <v>0.229557072001171</v>
       </c>
       <c r="F23">
-        <v>1.244878068028441</v>
+        <v>1.155786562655209</v>
       </c>
       <c r="G23">
-        <v>0.2950648362368398</v>
+        <v>0.3071160352703757</v>
       </c>
       <c r="H23">
-        <v>5.384836831856532E-05</v>
+        <v>2.191040639631936E-05</v>
       </c>
       <c r="I23">
-        <v>0.001468142077560408</v>
+        <v>0.001602538114953589</v>
       </c>
       <c r="J23">
-        <v>0.2751874338704638</v>
+        <v>0.2240941421246525</v>
       </c>
       <c r="K23">
-        <v>0.3227902628330916</v>
+        <v>0.2764553596765964</v>
       </c>
       <c r="L23">
-        <v>0.1229812881954686</v>
+        <v>0.123631844938549</v>
       </c>
       <c r="M23">
-        <v>1.538082327296024</v>
+        <v>0.09135305275076178</v>
       </c>
       <c r="N23">
-        <v>0.7555750874445835</v>
+        <v>0.1339812606111508</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.562789644654174</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.79767980409801</v>
       </c>
       <c r="Q23">
-        <v>1.149874101322283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.983388676871698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.690913813173154</v>
+        <v>1.670544359564587</v>
       </c>
       <c r="C24">
-        <v>0.1614452965968489</v>
+        <v>0.1503692682488733</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.204561675308554</v>
+        <v>0.2021379567378148</v>
       </c>
       <c r="F24">
-        <v>1.146914845514829</v>
+        <v>1.090753310125862</v>
       </c>
       <c r="G24">
-        <v>0.2910123449469992</v>
+        <v>0.2542772096974133</v>
       </c>
       <c r="H24">
-        <v>0.0007306293347206783</v>
+        <v>0.000523756073145476</v>
       </c>
       <c r="I24">
-        <v>0.002180605873967956</v>
+        <v>0.001983349894696396</v>
       </c>
       <c r="J24">
-        <v>0.2801483381371241</v>
+        <v>0.2814072610356533</v>
       </c>
       <c r="K24">
-        <v>0.3293761772318753</v>
+        <v>0.2945215787734341</v>
       </c>
       <c r="L24">
-        <v>0.1087623009231251</v>
+        <v>0.1338227414143685</v>
       </c>
       <c r="M24">
-        <v>1.328023170373683</v>
+        <v>0.09193840329469616</v>
       </c>
       <c r="N24">
-        <v>0.6556042897354217</v>
+        <v>0.1142086483998028</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.35392993119072</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.685602452015317</v>
       </c>
       <c r="Q24">
-        <v>1.151259772496786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.046060602449188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.390182671452692</v>
+        <v>1.376505823180253</v>
       </c>
       <c r="C25">
-        <v>0.1563876071490498</v>
+        <v>0.1423480886562274</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1782732138859942</v>
+        <v>0.1763821800689698</v>
       </c>
       <c r="F25">
-        <v>1.044589471964272</v>
+        <v>1.000436930557768</v>
       </c>
       <c r="G25">
-        <v>0.288534249271116</v>
+        <v>0.2524700609891184</v>
       </c>
       <c r="H25">
-        <v>0.002425886362444007</v>
+        <v>0.001929494638584717</v>
       </c>
       <c r="I25">
-        <v>0.003809717772342402</v>
+        <v>0.003129814636423589</v>
       </c>
       <c r="J25">
-        <v>0.2866638716637837</v>
+        <v>0.292399469253084</v>
       </c>
       <c r="K25">
-        <v>0.3378312522630935</v>
+        <v>0.3062598791295841</v>
       </c>
       <c r="L25">
-        <v>0.09344857350825464</v>
+        <v>0.1427494127539219</v>
       </c>
       <c r="M25">
-        <v>1.101540499088173</v>
+        <v>0.09067572509932909</v>
       </c>
       <c r="N25">
-        <v>0.5483965877775745</v>
+        <v>0.09656841947772676</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.121464598862076</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.5721617381006467</v>
       </c>
       <c r="Q25">
-        <v>1.159183137353665</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.069704837793921</v>
       </c>
     </row>
   </sheetData>
